--- a/nibble_ascii.xlsx
+++ b/nibble_ascii.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="148">
   <si>
     <t>nibble 1 (bin)</t>
   </si>
@@ -535,13 +535,13 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -831,11 +831,11 @@
       <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>13</v>
+      <c r="K2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1000.0</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -868,18 +868,18 @@
         <f t="shared" si="1"/>
         <v>0.46875</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="8">
         <f t="shared" ref="I3:I18" si="2">IF(EQ(G2,1000),0.5,IF(EQ(G2,(1000+1000/16)),0.5*15/16,IF(EQ(G2,(1000+1000/16*2)),0.5*14/16,IF(EQ(G2,(1000+1000/16*3)),0.5*13/16,IF(EQ(G2,(1000+1000/16*4)),0.5*12/16,IF(EQ(G2,(1000+1000/16*5)),0.5*11/16,IF(EQ(G2,(1000+1000/16*6)),0.5*10/16,IF(EQ(G2,(1000+1000/16*7)),0.5*9/16,IF(EQ(G2,(1000+1000/16*8)),0.5*8/16,IF(EQ(G2,(1000+1000/16*9)),0.5*7/16,IF(EQ(G2,(1000+1000/16*10)),0.5*6/16,IF(EQ(G2,(1000+1000/16*11)),0.5*5/16,IF(EQ(G2,(1000+1000/16*12)),0.5*4/16,IF(EQ(G2,(1000+1000/16*13)),0.5*3/16,IF(EQ(G2,(1000+1000/16*14)),0.5*2/16,IF(EQ(G2,(1000+1000/16*15)),0.5*1/16,IF(EQ(G2,(1000+1000/16*16)),0.5*0/16,0)))))))))))))))))</f>
         <v>0.5</v>
       </c>
       <c r="J3" s="7">
         <v>1000.0</v>
       </c>
-      <c r="K3" s="8">
-        <v>0.5</v>
+      <c r="K3" s="7">
+        <v>0.468</v>
       </c>
       <c r="L3" s="7">
-        <v>1000.0</v>
+        <v>1062.5</v>
       </c>
       <c r="M3" s="1">
         <v>24000.0</v>
@@ -912,7 +912,7 @@
         <f t="shared" si="1"/>
         <v>0.4375</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <f t="shared" si="2"/>
         <v>0.46875</v>
       </c>
@@ -921,10 +921,10 @@
         <v>1062.5</v>
       </c>
       <c r="K4" s="7">
-        <v>0.468</v>
+        <v>0.437</v>
       </c>
       <c r="L4" s="7">
-        <v>1062.5</v>
+        <v>1125.0</v>
       </c>
       <c r="M4" s="1">
         <v>22500.0</v>
@@ -957,7 +957,7 @@
         <f t="shared" si="1"/>
         <v>0.40625</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <f t="shared" si="2"/>
         <v>0.4375</v>
       </c>
@@ -966,10 +966,10 @@
         <v>1125</v>
       </c>
       <c r="K5" s="7">
-        <v>0.437</v>
+        <v>0.406</v>
       </c>
       <c r="L5" s="7">
-        <v>1125.0</v>
+        <v>1187.5</v>
       </c>
       <c r="M5" s="1">
         <v>21000.0</v>
@@ -1002,7 +1002,7 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <f t="shared" si="2"/>
         <v>0.40625</v>
       </c>
@@ -1010,11 +1010,11 @@
         <f>1000 + 1000/16*3</f>
         <v>1187.5</v>
       </c>
-      <c r="K6" s="7">
-        <v>0.406</v>
+      <c r="K6" s="8">
+        <v>0.375</v>
       </c>
       <c r="L6" s="7">
-        <v>1187.5</v>
+        <v>1250.0</v>
       </c>
       <c r="M6" s="1">
         <v>19500.0</v>
@@ -1047,7 +1047,7 @@
         <f t="shared" si="1"/>
         <v>0.34375</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
@@ -1055,11 +1055,11 @@
         <f>1000 + 1000/16*4</f>
         <v>1250</v>
       </c>
-      <c r="K7" s="6">
-        <v>0.375</v>
+      <c r="K7" s="7">
+        <v>0.343</v>
       </c>
       <c r="L7" s="7">
-        <v>1250.0</v>
+        <v>1312.5</v>
       </c>
       <c r="M7" s="1">
         <v>18000.0</v>
@@ -1092,7 +1092,7 @@
         <f t="shared" si="1"/>
         <v>0.3125</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
         <f t="shared" si="2"/>
         <v>0.34375</v>
       </c>
@@ -1101,10 +1101,10 @@
         <v>1312.5</v>
       </c>
       <c r="K8" s="7">
-        <v>0.343</v>
+        <v>0.312</v>
       </c>
       <c r="L8" s="7">
-        <v>1312.5</v>
+        <v>1375.0</v>
       </c>
       <c r="M8" s="1">
         <v>16500.0</v>
@@ -1137,7 +1137,7 @@
         <f t="shared" si="1"/>
         <v>0.28125</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
         <v>0.3125</v>
       </c>
@@ -1146,10 +1146,10 @@
         <v>1375</v>
       </c>
       <c r="K9" s="7">
-        <v>0.312</v>
+        <v>0.281</v>
       </c>
       <c r="L9" s="7">
-        <v>1375.0</v>
+        <v>1437.5</v>
       </c>
       <c r="M9" s="1">
         <v>15000.0</v>
@@ -1182,7 +1182,7 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>0.28125</v>
       </c>
@@ -1190,11 +1190,11 @@
         <f>1000 + 1000/16*7</f>
         <v>1437.5</v>
       </c>
-      <c r="K10" s="7">
-        <v>0.281</v>
+      <c r="K10" s="6">
+        <v>0.25</v>
       </c>
       <c r="L10" s="7">
-        <v>1437.5</v>
+        <v>1500.0</v>
       </c>
       <c r="M10" s="1">
         <v>13500.0</v>
@@ -1227,7 +1227,7 @@
         <f t="shared" si="1"/>
         <v>0.21875</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="8">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -1235,11 +1235,11 @@
         <f>1000 + 1000/16*8</f>
         <v>1500</v>
       </c>
-      <c r="K11" s="8">
-        <v>0.25</v>
+      <c r="K11" s="7">
+        <v>0.218</v>
       </c>
       <c r="L11" s="7">
-        <v>1500.0</v>
+        <v>1562.5</v>
       </c>
       <c r="M11" s="1">
         <v>12000.0</v>
@@ -1272,7 +1272,7 @@
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
         <f t="shared" si="2"/>
         <v>0.21875</v>
       </c>
@@ -1281,10 +1281,10 @@
         <v>1562.5</v>
       </c>
       <c r="K12" s="7">
-        <v>0.218</v>
+        <v>0.187</v>
       </c>
       <c r="L12" s="7">
-        <v>1562.5</v>
+        <v>1625.0</v>
       </c>
       <c r="M12" s="1">
         <v>10500.0</v>
@@ -1317,7 +1317,7 @@
         <f t="shared" si="1"/>
         <v>0.15625</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="8">
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
@@ -1326,10 +1326,10 @@
         <v>1625</v>
       </c>
       <c r="K13" s="7">
-        <v>0.187</v>
+        <v>0.156</v>
       </c>
       <c r="L13" s="7">
-        <v>1625.0</v>
+        <v>1687.5</v>
       </c>
       <c r="M13" s="1">
         <v>9000.0</v>
@@ -1362,7 +1362,7 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8">
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
@@ -1370,11 +1370,11 @@
         <f>1000 + 1000/16*11</f>
         <v>1687.5</v>
       </c>
-      <c r="K14" s="7">
-        <v>0.156</v>
+      <c r="K14" s="8">
+        <v>0.125</v>
       </c>
       <c r="L14" s="7">
-        <v>1687.5</v>
+        <v>1750.0</v>
       </c>
       <c r="M14" s="1">
         <v>7500.0</v>
@@ -1407,7 +1407,7 @@
         <f t="shared" si="1"/>
         <v>0.09375</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="8">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
@@ -1415,11 +1415,11 @@
         <f>1000 + 1000/16*12</f>
         <v>1750</v>
       </c>
-      <c r="K15" s="6">
-        <v>0.125</v>
+      <c r="K15" s="7">
+        <v>0.093</v>
       </c>
       <c r="L15" s="7">
-        <v>1750.0</v>
+        <v>1812.5</v>
       </c>
       <c r="M15" s="1">
         <v>6000.0</v>
@@ -1452,7 +1452,7 @@
         <f t="shared" si="1"/>
         <v>0.0625</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8">
         <f t="shared" si="2"/>
         <v>0.09375</v>
       </c>
@@ -1461,10 +1461,10 @@
         <v>1812.5</v>
       </c>
       <c r="K16" s="7">
-        <v>0.093</v>
+        <v>0.062</v>
       </c>
       <c r="L16" s="7">
-        <v>1812.5</v>
+        <v>1875.0</v>
       </c>
       <c r="M16" s="1">
         <v>4500.0</v>
@@ -1497,7 +1497,7 @@
         <f t="shared" si="1"/>
         <v>0.03125</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="8">
         <f t="shared" si="2"/>
         <v>0.0625</v>
       </c>
@@ -1506,10 +1506,10 @@
         <v>1875</v>
       </c>
       <c r="K17" s="7">
-        <v>0.062</v>
+        <v>0.031</v>
       </c>
       <c r="L17" s="7">
-        <v>1875.0</v>
+        <v>1937.5</v>
       </c>
       <c r="M17" s="1">
         <v>3000.0</v>
@@ -1543,7 +1543,7 @@
         <f t="shared" ref="H18:H129" si="5">H2</f>
         <v>0.5</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="8">
         <f t="shared" si="2"/>
         <v>0.03125</v>
       </c>
@@ -1551,11 +1551,11 @@
         <f>1000 + 1000/16*15</f>
         <v>1937.5</v>
       </c>
-      <c r="K18" s="7">
-        <v>0.031</v>
+      <c r="K18" s="6">
+        <v>0.0</v>
       </c>
       <c r="L18" s="7">
-        <v>1937.5</v>
+        <v>2000.0</v>
       </c>
       <c r="M18" s="1">
         <v>1500.0</v>
@@ -1594,12 +1594,6 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="7">
-        <v>2000.0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="7">
         <v>2000.0</v>
       </c>
       <c r="M19" s="1">

--- a/nibble_ascii.xlsx
+++ b/nibble_ascii.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="397">
   <si>
     <t>nibble 1 (bin)</t>
   </si>
@@ -455,7 +455,754 @@
     <t>DEL</t>
   </si>
   <si>
-    <t>SCII</t>
+    <t>Ç</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>é</t>
+  </si>
+  <si>
+    <t>â</t>
+  </si>
+  <si>
+    <t>ä</t>
+  </si>
+  <si>
+    <t>à</t>
+  </si>
+  <si>
+    <t>å</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>ê</t>
+  </si>
+  <si>
+    <t>ë</t>
+  </si>
+  <si>
+    <t>è</t>
+  </si>
+  <si>
+    <t>ï</t>
+  </si>
+  <si>
+    <t>î</t>
+  </si>
+  <si>
+    <t>ì</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Å</t>
+  </si>
+  <si>
+    <t>É</t>
+  </si>
+  <si>
+    <t>æ</t>
+  </si>
+  <si>
+    <t>Æ</t>
+  </si>
+  <si>
+    <t>ô</t>
+  </si>
+  <si>
+    <t>ö</t>
+  </si>
+  <si>
+    <t>ò</t>
+  </si>
+  <si>
+    <t>û</t>
+  </si>
+  <si>
+    <t>ù</t>
+  </si>
+  <si>
+    <t>ÿ</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>ø</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>ƒ</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>ú</t>
+  </si>
+  <si>
+    <t>ñ</t>
+  </si>
+  <si>
+    <t>Ñ</t>
+  </si>
+  <si>
+    <t>ª</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>¿</t>
+  </si>
+  <si>
+    <t>®</t>
+  </si>
+  <si>
+    <t>¬</t>
+  </si>
+  <si>
+    <t>½</t>
+  </si>
+  <si>
+    <t>¼</t>
+  </si>
+  <si>
+    <t>¡</t>
+  </si>
+  <si>
+    <t>«</t>
+  </si>
+  <si>
+    <t>»</t>
+  </si>
+  <si>
+    <t>░</t>
+  </si>
+  <si>
+    <t>▒</t>
+  </si>
+  <si>
+    <t>▓</t>
+  </si>
+  <si>
+    <t>│</t>
+  </si>
+  <si>
+    <t>┤</t>
+  </si>
+  <si>
+    <t>Á</t>
+  </si>
+  <si>
+    <t>Â</t>
+  </si>
+  <si>
+    <t>À</t>
+  </si>
+  <si>
+    <t>©</t>
+  </si>
+  <si>
+    <t>╣</t>
+  </si>
+  <si>
+    <t>║</t>
+  </si>
+  <si>
+    <t>╗</t>
+  </si>
+  <si>
+    <t>╝</t>
+  </si>
+  <si>
+    <t>¢</t>
+  </si>
+  <si>
+    <t>¥</t>
+  </si>
+  <si>
+    <t>┐</t>
+  </si>
+  <si>
+    <t>└</t>
+  </si>
+  <si>
+    <t>┴</t>
+  </si>
+  <si>
+    <t>┬</t>
+  </si>
+  <si>
+    <t>├</t>
+  </si>
+  <si>
+    <t>─</t>
+  </si>
+  <si>
+    <t>┼</t>
+  </si>
+  <si>
+    <t>ã</t>
+  </si>
+  <si>
+    <t>Ã</t>
+  </si>
+  <si>
+    <t>╚</t>
+  </si>
+  <si>
+    <t>╔</t>
+  </si>
+  <si>
+    <t>╩</t>
+  </si>
+  <si>
+    <t>╦</t>
+  </si>
+  <si>
+    <t>╠</t>
+  </si>
+  <si>
+    <t>═</t>
+  </si>
+  <si>
+    <t>╬</t>
+  </si>
+  <si>
+    <t>¤</t>
+  </si>
+  <si>
+    <t>ð</t>
+  </si>
+  <si>
+    <t>Ð</t>
+  </si>
+  <si>
+    <t>Ê</t>
+  </si>
+  <si>
+    <t>Ë</t>
+  </si>
+  <si>
+    <t>È</t>
+  </si>
+  <si>
+    <t>ı</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>Î</t>
+  </si>
+  <si>
+    <t>Ï</t>
+  </si>
+  <si>
+    <t>┘</t>
+  </si>
+  <si>
+    <t>┌</t>
+  </si>
+  <si>
+    <t>█</t>
+  </si>
+  <si>
+    <t>▄</t>
+  </si>
+  <si>
+    <t>¦</t>
+  </si>
+  <si>
+    <t>Ì</t>
+  </si>
+  <si>
+    <t>▀</t>
+  </si>
+  <si>
+    <t>Ó</t>
+  </si>
+  <si>
+    <t>ß</t>
+  </si>
+  <si>
+    <t>Ô</t>
+  </si>
+  <si>
+    <t>Ò</t>
+  </si>
+  <si>
+    <t>õ</t>
+  </si>
+  <si>
+    <t>Õ</t>
+  </si>
+  <si>
+    <t>µ</t>
+  </si>
+  <si>
+    <t>þ</t>
+  </si>
+  <si>
+    <t>Þ</t>
+  </si>
+  <si>
+    <t>Ú</t>
+  </si>
+  <si>
+    <t>Û</t>
+  </si>
+  <si>
+    <t>Ù</t>
+  </si>
+  <si>
+    <t>ý</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>¯</t>
+  </si>
+  <si>
+    <t>´</t>
+  </si>
+  <si>
+    <t>­­</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>‗</t>
+  </si>
+  <si>
+    <t>¾</t>
+  </si>
+  <si>
+    <t>¶</t>
+  </si>
+  <si>
+    <t>§</t>
+  </si>
+  <si>
+    <t>÷</t>
+  </si>
+  <si>
+    <t>¸</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>¨</t>
+  </si>
+  <si>
+    <t>·</t>
+  </si>
+  <si>
+    <t>¹</t>
+  </si>
+  <si>
+    <t>³</t>
+  </si>
+  <si>
+    <t>²</t>
+  </si>
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Binário</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>8E</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>9D</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>9F</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
   </si>
 </sst>
 </file>
@@ -4714,10 +5461,19 @@
       <c r="B130" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C130" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1500.0</v>
+      </c>
       <c r="F130" s="1">
         <f>0.5/16*8</f>
         <v>0.25</v>
       </c>
+      <c r="G130" s="1">
+        <v>1000.0</v>
+      </c>
       <c r="K130" s="9"/>
     </row>
     <row r="131">
@@ -4727,10 +5483,20 @@
       <c r="B131" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C131" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1500.0</v>
+      </c>
       <c r="F131" s="1">
         <f>0.5/16*7</f>
         <v>0.21875</v>
       </c>
+      <c r="G131" s="1">
+        <f>1000 + 1000/16</f>
+        <v>1062.5</v>
+      </c>
       <c r="K131" s="9"/>
     </row>
     <row r="132">
@@ -4740,10 +5506,20 @@
       <c r="B132" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C132" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1500.0</v>
+      </c>
       <c r="F132" s="1">
         <f>0.5/16*6</f>
         <v>0.1875</v>
       </c>
+      <c r="G132" s="1">
+        <f>1000 + 1000/16*2</f>
+        <v>1125</v>
+      </c>
       <c r="K132" s="9"/>
     </row>
     <row r="133">
@@ -4753,10 +5529,20 @@
       <c r="B133" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1500.0</v>
+      </c>
       <c r="F133" s="1">
         <f>0.5/16*5</f>
         <v>0.15625</v>
       </c>
+      <c r="G133" s="1">
+        <f>1000 + 1000/16*3</f>
+        <v>1187.5</v>
+      </c>
       <c r="K133" s="9"/>
     </row>
     <row r="134">
@@ -4766,10 +5552,20 @@
       <c r="B134" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C134" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1500.0</v>
+      </c>
       <c r="F134" s="1">
         <f>0.5/16*4</f>
         <v>0.125</v>
       </c>
+      <c r="G134" s="1">
+        <f>1000 + 1000/16*4</f>
+        <v>1250</v>
+      </c>
       <c r="K134" s="9"/>
     </row>
     <row r="135">
@@ -4779,10 +5575,20 @@
       <c r="B135" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C135" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1500.0</v>
+      </c>
       <c r="F135" s="1">
         <f>0.5/16*3</f>
         <v>0.09375</v>
       </c>
+      <c r="G135" s="1">
+        <f>1000 + 1000/16*5</f>
+        <v>1312.5</v>
+      </c>
       <c r="K135" s="9"/>
     </row>
     <row r="136">
@@ -4792,10 +5598,20 @@
       <c r="B136" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C136" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1500.0</v>
+      </c>
       <c r="F136" s="1">
         <f>0.5/16*2</f>
         <v>0.0625</v>
       </c>
+      <c r="G136" s="1">
+        <f>1000 + 1000/16*6</f>
+        <v>1375</v>
+      </c>
       <c r="K136" s="9"/>
     </row>
     <row r="137">
@@ -4805,10 +5621,20 @@
       <c r="B137" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C137" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1500.0</v>
+      </c>
       <c r="F137" s="1">
         <f>0.5/16</f>
         <v>0.03125</v>
       </c>
+      <c r="G137" s="1">
+        <f>1000 + 1000/16*7</f>
+        <v>1437.5</v>
+      </c>
       <c r="K137" s="9"/>
     </row>
     <row r="138">
@@ -4818,8 +5644,18 @@
       <c r="B138" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C138" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1500.0</v>
+      </c>
       <c r="F138" s="1">
         <v>0.0</v>
+      </c>
+      <c r="G138" s="1">
+        <f>1000 + 1000/16*8</f>
+        <v>1500</v>
       </c>
       <c r="K138" s="9"/>
     </row>
@@ -4830,6 +5666,16 @@
       <c r="B139" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C139" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="G139" s="1">
+        <f>1000 + 1000/16*9</f>
+        <v>1562.5</v>
+      </c>
       <c r="K139" s="9"/>
     </row>
     <row r="140">
@@ -4839,6 +5685,16 @@
       <c r="B140" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C140" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="G140" s="1">
+        <f>1000 + 1000/16*10</f>
+        <v>1625</v>
+      </c>
       <c r="K140" s="9"/>
     </row>
     <row r="141">
@@ -4848,6 +5704,16 @@
       <c r="B141" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C141" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="G141" s="1">
+        <f>1000 + 1000/16*11</f>
+        <v>1687.5</v>
+      </c>
       <c r="K141" s="9"/>
     </row>
     <row r="142">
@@ -4857,6 +5723,16 @@
       <c r="B142" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C142" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="G142" s="1">
+        <f>1000 + 1000/16*12</f>
+        <v>1750</v>
+      </c>
       <c r="K142" s="9"/>
     </row>
     <row r="143">
@@ -4866,6 +5742,16 @@
       <c r="B143" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C143" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="G143" s="1">
+        <f>1000 + 1000/16*13</f>
+        <v>1812.5</v>
+      </c>
       <c r="K143" s="9"/>
     </row>
     <row r="144">
@@ -4875,6 +5761,16 @@
       <c r="B144" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C144" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="G144" s="1">
+        <f>1000 + 1000/16*14</f>
+        <v>1875</v>
+      </c>
       <c r="K144" s="9"/>
     </row>
     <row r="145">
@@ -4884,6 +5780,16 @@
       <c r="B145" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C145" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="G145" s="1">
+        <f>1000 + 1000/16*15</f>
+        <v>1937.5</v>
+      </c>
       <c r="K145" s="9"/>
     </row>
     <row r="146">
@@ -4893,6 +5799,15 @@
       <c r="B146" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C146" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1000.0</v>
+      </c>
       <c r="K146" s="9"/>
     </row>
     <row r="147">
@@ -4902,6 +5817,16 @@
       <c r="B147" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C147" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G147" s="1">
+        <f>1000 + 1000/16</f>
+        <v>1062.5</v>
+      </c>
       <c r="K147" s="9"/>
     </row>
     <row r="148">
@@ -4911,6 +5836,16 @@
       <c r="B148" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C148" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G148" s="1">
+        <f>1000 + 1000/16*2</f>
+        <v>1125</v>
+      </c>
       <c r="K148" s="9"/>
     </row>
     <row r="149">
@@ -4920,6 +5855,16 @@
       <c r="B149" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C149" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G149" s="1">
+        <f>1000 + 1000/16*3</f>
+        <v>1187.5</v>
+      </c>
       <c r="K149" s="9"/>
     </row>
     <row r="150">
@@ -4929,6 +5874,16 @@
       <c r="B150" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C150" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G150" s="1">
+        <f>1000 + 1000/16*4</f>
+        <v>1250</v>
+      </c>
       <c r="K150" s="9"/>
     </row>
     <row r="151">
@@ -4938,6 +5893,16 @@
       <c r="B151" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C151" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G151" s="1">
+        <f>1000 + 1000/16*5</f>
+        <v>1312.5</v>
+      </c>
       <c r="K151" s="9"/>
     </row>
     <row r="152">
@@ -4947,6 +5912,16 @@
       <c r="B152" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C152" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G152" s="1">
+        <f>1000 + 1000/16*6</f>
+        <v>1375</v>
+      </c>
       <c r="K152" s="9"/>
     </row>
     <row r="153">
@@ -4956,6 +5931,16 @@
       <c r="B153" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C153" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G153" s="1">
+        <f>1000 + 1000/16*7</f>
+        <v>1437.5</v>
+      </c>
       <c r="K153" s="9"/>
     </row>
     <row r="154">
@@ -4965,6 +5950,16 @@
       <c r="B154" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C154" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G154" s="1">
+        <f>1000 + 1000/16*8</f>
+        <v>1500</v>
+      </c>
       <c r="K154" s="9"/>
     </row>
     <row r="155">
@@ -4974,6 +5969,16 @@
       <c r="B155" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C155" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G155" s="1">
+        <f>1000 + 1000/16*9</f>
+        <v>1562.5</v>
+      </c>
       <c r="K155" s="9"/>
     </row>
     <row r="156">
@@ -4983,6 +5988,16 @@
       <c r="B156" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C156" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G156" s="1">
+        <f>1000 + 1000/16*10</f>
+        <v>1625</v>
+      </c>
       <c r="K156" s="9"/>
     </row>
     <row r="157">
@@ -4992,6 +6007,16 @@
       <c r="B157" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C157" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G157" s="1">
+        <f>1000 + 1000/16*11</f>
+        <v>1687.5</v>
+      </c>
       <c r="K157" s="9"/>
     </row>
     <row r="158">
@@ -5001,6 +6026,16 @@
       <c r="B158" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C158" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G158" s="1">
+        <f>1000 + 1000/16*12</f>
+        <v>1750</v>
+      </c>
       <c r="K158" s="9"/>
     </row>
     <row r="159">
@@ -5010,6 +6045,16 @@
       <c r="B159" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C159" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G159" s="1">
+        <f>1000 + 1000/16*13</f>
+        <v>1812.5</v>
+      </c>
       <c r="K159" s="9"/>
     </row>
     <row r="160">
@@ -5019,6 +6064,16 @@
       <c r="B160" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C160" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G160" s="1">
+        <f>1000 + 1000/16*14</f>
+        <v>1875</v>
+      </c>
       <c r="K160" s="9"/>
     </row>
     <row r="161">
@@ -5028,6 +6083,16 @@
       <c r="B161" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C161" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1562.5</v>
+      </c>
+      <c r="G161" s="1">
+        <f>1000 + 1000/16*15</f>
+        <v>1937.5</v>
+      </c>
       <c r="K161" s="9"/>
     </row>
     <row r="162">
@@ -5037,6 +6102,16 @@
       <c r="B162" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C162" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E162" s="4">
+        <f>E161+62.5</f>
+        <v>1625</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1000.0</v>
+      </c>
       <c r="K162" s="9"/>
     </row>
     <row r="163">
@@ -5046,6 +6121,16 @@
       <c r="B163" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C163" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G163" s="1">
+        <f>1000 + 1000/16</f>
+        <v>1062.5</v>
+      </c>
       <c r="K163" s="9"/>
     </row>
     <row r="164">
@@ -5055,6 +6140,16 @@
       <c r="B164" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C164" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G164" s="1">
+        <f>1000 + 1000/16*2</f>
+        <v>1125</v>
+      </c>
       <c r="K164" s="9"/>
     </row>
     <row r="165">
@@ -5064,6 +6159,16 @@
       <c r="B165" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C165" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G165" s="1">
+        <f>1000 + 1000/16*3</f>
+        <v>1187.5</v>
+      </c>
       <c r="K165" s="9"/>
     </row>
     <row r="166">
@@ -5073,6 +6178,16 @@
       <c r="B166" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C166" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G166" s="1">
+        <f>1000 + 1000/16*4</f>
+        <v>1250</v>
+      </c>
       <c r="K166" s="9"/>
     </row>
     <row r="167">
@@ -5082,6 +6197,16 @@
       <c r="B167" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C167" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G167" s="1">
+        <f>1000 + 1000/16*5</f>
+        <v>1312.5</v>
+      </c>
       <c r="K167" s="9"/>
     </row>
     <row r="168">
@@ -5091,6 +6216,16 @@
       <c r="B168" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C168" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G168" s="1">
+        <f>1000 + 1000/16*6</f>
+        <v>1375</v>
+      </c>
       <c r="K168" s="9"/>
     </row>
     <row r="169">
@@ -5100,6 +6235,16 @@
       <c r="B169" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C169" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1628.0</v>
+      </c>
+      <c r="G169" s="1">
+        <f>1000 + 1000/16*7</f>
+        <v>1437.5</v>
+      </c>
       <c r="K169" s="9"/>
     </row>
     <row r="170">
@@ -5109,6 +6254,16 @@
       <c r="B170" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C170" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G170" s="1">
+        <f>1000 + 1000/16*8</f>
+        <v>1500</v>
+      </c>
       <c r="K170" s="9"/>
     </row>
     <row r="171">
@@ -5118,6 +6273,16 @@
       <c r="B171" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C171" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G171" s="1">
+        <f>1000 + 1000/16*9</f>
+        <v>1562.5</v>
+      </c>
       <c r="K171" s="9"/>
     </row>
     <row r="172">
@@ -5127,6 +6292,16 @@
       <c r="B172" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C172" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G172" s="1">
+        <f>1000 + 1000/16*10</f>
+        <v>1625</v>
+      </c>
       <c r="K172" s="9"/>
     </row>
     <row r="173">
@@ -5136,6 +6311,16 @@
       <c r="B173" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C173" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G173" s="1">
+        <f>1000 + 1000/16*11</f>
+        <v>1687.5</v>
+      </c>
       <c r="K173" s="9"/>
     </row>
     <row r="174">
@@ -5145,6 +6330,16 @@
       <c r="B174" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C174" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G174" s="1">
+        <f>1000 + 1000/16*12</f>
+        <v>1750</v>
+      </c>
       <c r="K174" s="9"/>
     </row>
     <row r="175">
@@ -5154,6 +6349,16 @@
       <c r="B175" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C175" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G175" s="1">
+        <f>1000 + 1000/16*13</f>
+        <v>1812.5</v>
+      </c>
       <c r="K175" s="9"/>
     </row>
     <row r="176">
@@ -5163,6 +6368,16 @@
       <c r="B176" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C176" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G176" s="1">
+        <f>1000 + 1000/16*14</f>
+        <v>1875</v>
+      </c>
       <c r="K176" s="9"/>
     </row>
     <row r="177">
@@ -5172,6 +6387,16 @@
       <c r="B177" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C177" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1625.0</v>
+      </c>
+      <c r="G177" s="1">
+        <f>1000 + 1000/16*15</f>
+        <v>1937.5</v>
+      </c>
       <c r="K177" s="9"/>
     </row>
     <row r="178">
@@ -5181,6 +6406,16 @@
       <c r="B178" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C178" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E178" s="4">
+        <f>E177+62.5</f>
+        <v>1687.5</v>
+      </c>
+      <c r="G178" s="1">
+        <v>1000.0</v>
+      </c>
       <c r="K178" s="9"/>
     </row>
     <row r="179">
@@ -5190,6 +6425,16 @@
       <c r="B179" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C179" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G179" s="1">
+        <f>1000 + 1000/16</f>
+        <v>1062.5</v>
+      </c>
       <c r="K179" s="9"/>
     </row>
     <row r="180">
@@ -5199,6 +6444,16 @@
       <c r="B180" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C180" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G180" s="1">
+        <f>1000 + 1000/16*2</f>
+        <v>1125</v>
+      </c>
       <c r="K180" s="9"/>
     </row>
     <row r="181">
@@ -5208,6 +6463,16 @@
       <c r="B181" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C181" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G181" s="1">
+        <f>1000 + 1000/16*3</f>
+        <v>1187.5</v>
+      </c>
       <c r="K181" s="9"/>
     </row>
     <row r="182">
@@ -5217,6 +6482,16 @@
       <c r="B182" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C182" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G182" s="1">
+        <f>1000 + 1000/16*4</f>
+        <v>1250</v>
+      </c>
       <c r="K182" s="9"/>
     </row>
     <row r="183">
@@ -5226,6 +6501,16 @@
       <c r="B183" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C183" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G183" s="1">
+        <f>1000 + 1000/16*5</f>
+        <v>1312.5</v>
+      </c>
       <c r="K183" s="9"/>
     </row>
     <row r="184">
@@ -5235,6 +6520,16 @@
       <c r="B184" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C184" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G184" s="1">
+        <f>1000 + 1000/16*6</f>
+        <v>1375</v>
+      </c>
       <c r="K184" s="9"/>
     </row>
     <row r="185">
@@ -5244,6 +6539,16 @@
       <c r="B185" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C185" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G185" s="1">
+        <f>1000 + 1000/16*7</f>
+        <v>1437.5</v>
+      </c>
       <c r="K185" s="9"/>
     </row>
     <row r="186">
@@ -5253,6 +6558,16 @@
       <c r="B186" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C186" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G186" s="1">
+        <f>1000 + 1000/16*8</f>
+        <v>1500</v>
+      </c>
       <c r="K186" s="9"/>
     </row>
     <row r="187">
@@ -5262,6 +6577,16 @@
       <c r="B187" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C187" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G187" s="1">
+        <f>1000 + 1000/16*9</f>
+        <v>1562.5</v>
+      </c>
       <c r="K187" s="9"/>
     </row>
     <row r="188">
@@ -5271,6 +6596,16 @@
       <c r="B188" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C188" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G188" s="1">
+        <f>1000 + 1000/16*10</f>
+        <v>1625</v>
+      </c>
       <c r="K188" s="9"/>
     </row>
     <row r="189">
@@ -5280,6 +6615,16 @@
       <c r="B189" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C189" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G189" s="1">
+        <f>1000 + 1000/16*11</f>
+        <v>1687.5</v>
+      </c>
       <c r="K189" s="9"/>
     </row>
     <row r="190">
@@ -5289,6 +6634,16 @@
       <c r="B190" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C190" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G190" s="1">
+        <f>1000 + 1000/16*12</f>
+        <v>1750</v>
+      </c>
       <c r="K190" s="9"/>
     </row>
     <row r="191">
@@ -5298,6 +6653,16 @@
       <c r="B191" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C191" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G191" s="1">
+        <f>1000 + 1000/16*13</f>
+        <v>1812.5</v>
+      </c>
       <c r="K191" s="9"/>
     </row>
     <row r="192">
@@ -5307,6 +6672,16 @@
       <c r="B192" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C192" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G192" s="1">
+        <f>1000 + 1000/16*14</f>
+        <v>1875</v>
+      </c>
       <c r="K192" s="9"/>
     </row>
     <row r="193">
@@ -5316,6 +6691,16 @@
       <c r="B193" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C193" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1687.5</v>
+      </c>
+      <c r="G193" s="1">
+        <f>1000 + 1000/16*15</f>
+        <v>1937.5</v>
+      </c>
       <c r="K193" s="9"/>
     </row>
     <row r="194">
@@ -5325,6 +6710,16 @@
       <c r="B194" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C194" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E194" s="4">
+        <f>E193+62.5</f>
+        <v>1750</v>
+      </c>
+      <c r="G194" s="1">
+        <v>1000.0</v>
+      </c>
       <c r="K194" s="9"/>
     </row>
     <row r="195">
@@ -5334,6 +6729,16 @@
       <c r="B195" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C195" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G195" s="1">
+        <f>1000 + 1000/16</f>
+        <v>1062.5</v>
+      </c>
       <c r="K195" s="9"/>
     </row>
     <row r="196">
@@ -5343,6 +6748,16 @@
       <c r="B196" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C196" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G196" s="1">
+        <f>1000 + 1000/16*2</f>
+        <v>1125</v>
+      </c>
       <c r="K196" s="9"/>
     </row>
     <row r="197">
@@ -5352,6 +6767,16 @@
       <c r="B197" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C197" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G197" s="1">
+        <f>1000 + 1000/16*3</f>
+        <v>1187.5</v>
+      </c>
       <c r="K197" s="9"/>
     </row>
     <row r="198">
@@ -5361,6 +6786,16 @@
       <c r="B198" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C198" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G198" s="1">
+        <f>1000 + 1000/16*4</f>
+        <v>1250</v>
+      </c>
       <c r="K198" s="9"/>
     </row>
     <row r="199">
@@ -5370,6 +6805,16 @@
       <c r="B199" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C199" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G199" s="1">
+        <f>1000 + 1000/16*5</f>
+        <v>1312.5</v>
+      </c>
       <c r="K199" s="9"/>
     </row>
     <row r="200">
@@ -5379,6 +6824,16 @@
       <c r="B200" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C200" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G200" s="1">
+        <f>1000 + 1000/16*6</f>
+        <v>1375</v>
+      </c>
       <c r="K200" s="9"/>
     </row>
     <row r="201">
@@ -5388,6 +6843,16 @@
       <c r="B201" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C201" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G201" s="1">
+        <f>1000 + 1000/16*7</f>
+        <v>1437.5</v>
+      </c>
       <c r="K201" s="9"/>
     </row>
     <row r="202">
@@ -5397,6 +6862,16 @@
       <c r="B202" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C202" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G202" s="1">
+        <f>1000 + 1000/16*8</f>
+        <v>1500</v>
+      </c>
       <c r="K202" s="9"/>
     </row>
     <row r="203">
@@ -5406,6 +6881,16 @@
       <c r="B203" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C203" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G203" s="1">
+        <f>1000 + 1000/16*9</f>
+        <v>1562.5</v>
+      </c>
       <c r="K203" s="9"/>
     </row>
     <row r="204">
@@ -5415,6 +6900,16 @@
       <c r="B204" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C204" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G204" s="1">
+        <f>1000 + 1000/16*10</f>
+        <v>1625</v>
+      </c>
       <c r="K204" s="9"/>
     </row>
     <row r="205">
@@ -5424,6 +6919,16 @@
       <c r="B205" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C205" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G205" s="1">
+        <f>1000 + 1000/16*11</f>
+        <v>1687.5</v>
+      </c>
       <c r="K205" s="9"/>
     </row>
     <row r="206">
@@ -5433,6 +6938,16 @@
       <c r="B206" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C206" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G206" s="1">
+        <f>1000 + 1000/16*12</f>
+        <v>1750</v>
+      </c>
       <c r="K206" s="9"/>
     </row>
     <row r="207">
@@ -5442,6 +6957,16 @@
       <c r="B207" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C207" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G207" s="1">
+        <f>1000 + 1000/16*13</f>
+        <v>1812.5</v>
+      </c>
       <c r="K207" s="9"/>
     </row>
     <row r="208">
@@ -5451,6 +6976,16 @@
       <c r="B208" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C208" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G208" s="1">
+        <f>1000 + 1000/16*14</f>
+        <v>1875</v>
+      </c>
       <c r="K208" s="9"/>
     </row>
     <row r="209">
@@ -5460,6 +6995,16 @@
       <c r="B209" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C209" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1750.0</v>
+      </c>
+      <c r="G209" s="1">
+        <f>1000 + 1000/16*15</f>
+        <v>1937.5</v>
+      </c>
       <c r="K209" s="9"/>
     </row>
     <row r="210">
@@ -5469,6 +7014,16 @@
       <c r="B210" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C210" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E210" s="4">
+        <f>E209+62.5</f>
+        <v>1812.5</v>
+      </c>
+      <c r="G210" s="1">
+        <v>1000.0</v>
+      </c>
       <c r="K210" s="9"/>
     </row>
     <row r="211">
@@ -5478,6 +7033,16 @@
       <c r="B211" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C211" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G211" s="1">
+        <f>1000 + 1000/16</f>
+        <v>1062.5</v>
+      </c>
       <c r="K211" s="9"/>
     </row>
     <row r="212">
@@ -5487,6 +7052,16 @@
       <c r="B212" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C212" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G212" s="1">
+        <f>1000 + 1000/16*2</f>
+        <v>1125</v>
+      </c>
       <c r="K212" s="9"/>
     </row>
     <row r="213">
@@ -5496,6 +7071,16 @@
       <c r="B213" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C213" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G213" s="1">
+        <f>1000 + 1000/16*3</f>
+        <v>1187.5</v>
+      </c>
       <c r="K213" s="9"/>
     </row>
     <row r="214">
@@ -5505,6 +7090,16 @@
       <c r="B214" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C214" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G214" s="1">
+        <f>1000 + 1000/16*4</f>
+        <v>1250</v>
+      </c>
       <c r="K214" s="9"/>
     </row>
     <row r="215">
@@ -5514,6 +7109,16 @@
       <c r="B215" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C215" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G215" s="1">
+        <f>1000 + 1000/16*5</f>
+        <v>1312.5</v>
+      </c>
       <c r="K215" s="9"/>
     </row>
     <row r="216">
@@ -5523,6 +7128,16 @@
       <c r="B216" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C216" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G216" s="1">
+        <f>1000 + 1000/16*6</f>
+        <v>1375</v>
+      </c>
       <c r="K216" s="9"/>
     </row>
     <row r="217">
@@ -5532,6 +7147,16 @@
       <c r="B217" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C217" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G217" s="1">
+        <f>1000 + 1000/16*7</f>
+        <v>1437.5</v>
+      </c>
       <c r="K217" s="9"/>
     </row>
     <row r="218">
@@ -5541,6 +7166,16 @@
       <c r="B218" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C218" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G218" s="1">
+        <f>1000 + 1000/16*8</f>
+        <v>1500</v>
+      </c>
       <c r="K218" s="9"/>
     </row>
     <row r="219">
@@ -5550,6 +7185,16 @@
       <c r="B219" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C219" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G219" s="1">
+        <f>1000 + 1000/16*9</f>
+        <v>1562.5</v>
+      </c>
       <c r="K219" s="9"/>
     </row>
     <row r="220">
@@ -5559,6 +7204,16 @@
       <c r="B220" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C220" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G220" s="1">
+        <f>1000 + 1000/16*10</f>
+        <v>1625</v>
+      </c>
       <c r="K220" s="9"/>
     </row>
     <row r="221">
@@ -5568,6 +7223,16 @@
       <c r="B221" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C221" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G221" s="1">
+        <f>1000 + 1000/16*11</f>
+        <v>1687.5</v>
+      </c>
       <c r="K221" s="9"/>
     </row>
     <row r="222">
@@ -5577,6 +7242,16 @@
       <c r="B222" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C222" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G222" s="1">
+        <f>1000 + 1000/16*12</f>
+        <v>1750</v>
+      </c>
       <c r="K222" s="9"/>
     </row>
     <row r="223">
@@ -5586,6 +7261,16 @@
       <c r="B223" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C223" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G223" s="1">
+        <f>1000 + 1000/16*13</f>
+        <v>1812.5</v>
+      </c>
       <c r="K223" s="9"/>
     </row>
     <row r="224">
@@ -5595,6 +7280,16 @@
       <c r="B224" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C224" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G224" s="1">
+        <f>1000 + 1000/16*14</f>
+        <v>1875</v>
+      </c>
       <c r="K224" s="9"/>
     </row>
     <row r="225">
@@ -5604,6 +7299,16 @@
       <c r="B225" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C225" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1812.5</v>
+      </c>
+      <c r="G225" s="1">
+        <f>1000 + 1000/16*15</f>
+        <v>1937.5</v>
+      </c>
       <c r="K225" s="9"/>
     </row>
     <row r="226">
@@ -5613,6 +7318,16 @@
       <c r="B226" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C226" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E226" s="4">
+        <f>E225+62.5</f>
+        <v>1875</v>
+      </c>
+      <c r="G226" s="1">
+        <v>1000.0</v>
+      </c>
       <c r="K226" s="9"/>
     </row>
     <row r="227">
@@ -5622,6 +7337,16 @@
       <c r="B227" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C227" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G227" s="1">
+        <f>1000 + 1000/16</f>
+        <v>1062.5</v>
+      </c>
       <c r="K227" s="9"/>
     </row>
     <row r="228">
@@ -5631,6 +7356,16 @@
       <c r="B228" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C228" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G228" s="1">
+        <f>1000 + 1000/16*2</f>
+        <v>1125</v>
+      </c>
       <c r="K228" s="9"/>
     </row>
     <row r="229">
@@ -5640,6 +7375,16 @@
       <c r="B229" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C229" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G229" s="1">
+        <f>1000 + 1000/16*3</f>
+        <v>1187.5</v>
+      </c>
       <c r="K229" s="9"/>
     </row>
     <row r="230">
@@ -5649,6 +7394,16 @@
       <c r="B230" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C230" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G230" s="1">
+        <f>1000 + 1000/16*4</f>
+        <v>1250</v>
+      </c>
       <c r="K230" s="9"/>
     </row>
     <row r="231">
@@ -5658,6 +7413,16 @@
       <c r="B231" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C231" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G231" s="1">
+        <f>1000 + 1000/16*5</f>
+        <v>1312.5</v>
+      </c>
       <c r="K231" s="9"/>
     </row>
     <row r="232">
@@ -5667,6 +7432,16 @@
       <c r="B232" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C232" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G232" s="1">
+        <f>1000 + 1000/16*6</f>
+        <v>1375</v>
+      </c>
       <c r="K232" s="9"/>
     </row>
     <row r="233">
@@ -5676,6 +7451,16 @@
       <c r="B233" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C233" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G233" s="1">
+        <f>1000 + 1000/16*7</f>
+        <v>1437.5</v>
+      </c>
       <c r="K233" s="9"/>
     </row>
     <row r="234">
@@ -5685,6 +7470,16 @@
       <c r="B234" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C234" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G234" s="1">
+        <f>1000 + 1000/16*8</f>
+        <v>1500</v>
+      </c>
       <c r="K234" s="9"/>
     </row>
     <row r="235">
@@ -5694,6 +7489,16 @@
       <c r="B235" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C235" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G235" s="1">
+        <f>1000 + 1000/16*9</f>
+        <v>1562.5</v>
+      </c>
       <c r="K235" s="9"/>
     </row>
     <row r="236">
@@ -5703,6 +7508,16 @@
       <c r="B236" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C236" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G236" s="1">
+        <f>1000 + 1000/16*10</f>
+        <v>1625</v>
+      </c>
       <c r="K236" s="9"/>
     </row>
     <row r="237">
@@ -5712,6 +7527,16 @@
       <c r="B237" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C237" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G237" s="1">
+        <f>1000 + 1000/16*11</f>
+        <v>1687.5</v>
+      </c>
       <c r="K237" s="9"/>
     </row>
     <row r="238">
@@ -5721,6 +7546,16 @@
       <c r="B238" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C238" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G238" s="1">
+        <f>1000 + 1000/16*12</f>
+        <v>1750</v>
+      </c>
       <c r="K238" s="9"/>
     </row>
     <row r="239">
@@ -5730,6 +7565,16 @@
       <c r="B239" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C239" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G239" s="1">
+        <f>1000 + 1000/16*13</f>
+        <v>1812.5</v>
+      </c>
       <c r="K239" s="9"/>
     </row>
     <row r="240">
@@ -5739,6 +7584,16 @@
       <c r="B240" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C240" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G240" s="1">
+        <f>1000 + 1000/16*14</f>
+        <v>1875</v>
+      </c>
       <c r="K240" s="9"/>
     </row>
     <row r="241">
@@ -5748,6 +7603,16 @@
       <c r="B241" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C241" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1875.0</v>
+      </c>
+      <c r="G241" s="1">
+        <f>1000 + 1000/16*15</f>
+        <v>1937.5</v>
+      </c>
       <c r="K241" s="9"/>
     </row>
     <row r="242">
@@ -5757,6 +7622,16 @@
       <c r="B242" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C242" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E242" s="4">
+        <f>E241+62.5</f>
+        <v>1937.5</v>
+      </c>
+      <c r="G242" s="1">
+        <v>1000.0</v>
+      </c>
       <c r="K242" s="9"/>
     </row>
     <row r="243">
@@ -5766,6 +7641,16 @@
       <c r="B243" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C243" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E243" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G243" s="1">
+        <f>1000 + 1000/16</f>
+        <v>1062.5</v>
+      </c>
       <c r="K243" s="9"/>
     </row>
     <row r="244">
@@ -5775,6 +7660,16 @@
       <c r="B244" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C244" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G244" s="1">
+        <f>1000 + 1000/16*2</f>
+        <v>1125</v>
+      </c>
       <c r="K244" s="9"/>
     </row>
     <row r="245">
@@ -5784,6 +7679,16 @@
       <c r="B245" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C245" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G245" s="1">
+        <f>1000 + 1000/16*3</f>
+        <v>1187.5</v>
+      </c>
       <c r="K245" s="9"/>
     </row>
     <row r="246">
@@ -5793,6 +7698,16 @@
       <c r="B246" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C246" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E246" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G246" s="1">
+        <f>1000 + 1000/16*4</f>
+        <v>1250</v>
+      </c>
       <c r="K246" s="9"/>
     </row>
     <row r="247">
@@ -5802,6 +7717,16 @@
       <c r="B247" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C247" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G247" s="1">
+        <f>1000 + 1000/16*5</f>
+        <v>1312.5</v>
+      </c>
       <c r="K247" s="9"/>
     </row>
     <row r="248">
@@ -5811,6 +7736,16 @@
       <c r="B248" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C248" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G248" s="1">
+        <f>1000 + 1000/16*6</f>
+        <v>1375</v>
+      </c>
       <c r="K248" s="9"/>
     </row>
     <row r="249">
@@ -5820,6 +7755,16 @@
       <c r="B249" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C249" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G249" s="1">
+        <f>1000 + 1000/16*7</f>
+        <v>1437.5</v>
+      </c>
       <c r="K249" s="9"/>
     </row>
     <row r="250">
@@ -5829,6 +7774,16 @@
       <c r="B250" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C250" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G250" s="1">
+        <f>1000 + 1000/16*8</f>
+        <v>1500</v>
+      </c>
       <c r="K250" s="9"/>
     </row>
     <row r="251">
@@ -5838,6 +7793,16 @@
       <c r="B251" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C251" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G251" s="1">
+        <f>1000 + 1000/16*9</f>
+        <v>1562.5</v>
+      </c>
       <c r="K251" s="9"/>
     </row>
     <row r="252">
@@ -5847,6 +7812,16 @@
       <c r="B252" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C252" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G252" s="1">
+        <f>1000 + 1000/16*10</f>
+        <v>1625</v>
+      </c>
       <c r="K252" s="9"/>
     </row>
     <row r="253">
@@ -5856,6 +7831,16 @@
       <c r="B253" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C253" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G253" s="1">
+        <f>1000 + 1000/16*11</f>
+        <v>1687.5</v>
+      </c>
       <c r="K253" s="9"/>
     </row>
     <row r="254">
@@ -5865,6 +7850,16 @@
       <c r="B254" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C254" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G254" s="1">
+        <f>1000 + 1000/16*12</f>
+        <v>1750</v>
+      </c>
       <c r="K254" s="9"/>
     </row>
     <row r="255">
@@ -5874,6 +7869,16 @@
       <c r="B255" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C255" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G255" s="1">
+        <f>1000 + 1000/16*13</f>
+        <v>1812.5</v>
+      </c>
       <c r="K255" s="9"/>
     </row>
     <row r="256">
@@ -5883,6 +7888,16 @@
       <c r="B256" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C256" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G256" s="1">
+        <f>1000 + 1000/16*14</f>
+        <v>1875</v>
+      </c>
       <c r="K256" s="9"/>
     </row>
     <row r="257">
@@ -5891,6 +7906,13 @@
       </c>
       <c r="B257" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1937.5</v>
+      </c>
+      <c r="G257" s="1">
+        <f>1000 + 1000/16*15</f>
+        <v>1937.5</v>
       </c>
       <c r="K257" s="9"/>
     </row>
@@ -41003,388 +43025,2635 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100001.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1101100.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="1">
+        <v>183.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.0110111E7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100010.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1101101.0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="1">
+        <v>184.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0111E7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100011.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1101110.0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="1">
+        <v>185.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.0111001E7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100100.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1101111.0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="1">
+        <v>186.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.011101E7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100101.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1110000.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="1">
+        <v>187.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.0111011E7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100110.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1110001.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="1">
+        <v>188.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.01111E7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100111.0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1110010.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="1">
+        <v>189.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.0111101E7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>101000.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1110011.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.011111E7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>101010.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1110100.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="1">
+        <v>191.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.0111111E7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>101001.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1110101.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="1">
+        <v>192.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.1E7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>101011.0</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1110110.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="1">
+        <v>193.0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.1000001E7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>101100.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1110111.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="1">
+        <v>194.0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.100001E7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>101101.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1111000.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="1">
+        <v>195.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.1000011E7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>101110.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1111001.0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="1">
+        <v>196.0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.10001E7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>101111.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1111010.0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="1">
+        <v>197.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.1000101E7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>110000.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1111011.0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="1">
+        <v>198.0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.100011E7</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>110001.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1111100.0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="1">
+        <v>199.0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.1000111E7</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>110010.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1111101.0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.1001E7</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>110011.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1111110.0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.1001001E7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>110100.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1111111.0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H21" s="1">
+        <v>202.0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.100101E7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>110101.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.0E7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
+      <c r="H22" s="1">
+        <v>203.0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.1001011E7</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
+      <c r="A23" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>110110.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.0000001E7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.10011E7</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>51</v>
+      <c r="A24" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>110111.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.000001E7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="1">
+        <v>205.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.1001101E7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
+      <c r="A25" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>111000.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.0000011E7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.100111E7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
+      <c r="A26" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>111001.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.00001E7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="1">
+        <v>207.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.1001111E7</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
+      <c r="A27" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>111010.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.0000101E7</v>
+      </c>
+      <c r="F27" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="1">
+        <v>208.0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.101E7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>55</v>
+      <c r="A28" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>111011.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.000011E7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="1">
+        <v>209.0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.1010001E7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
+      <c r="A29" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>111100.0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.0000111E7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.101001E7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>57</v>
+      <c r="A30" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>111101.0</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.0001E7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="1">
+        <v>211.0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.1010011E7</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>58</v>
+      <c r="A31" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>111110.0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1">
+        <v>137.0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.0001001E7</v>
+      </c>
+      <c r="F31" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.10101E7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
+      <c r="A32" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>111111.0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.000101E7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="1">
+        <v>213.0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.1010101E7</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>60</v>
+      <c r="A33" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1000000.0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.0001011E7</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="1">
+        <v>214.0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.101011E7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>61</v>
+      <c r="A34" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1000001.0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.00011E7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="1">
+        <v>215.0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1.1010111E7</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>62</v>
+      <c r="A35" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1000010.0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.0001101E7</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="1">
+        <v>216.0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.1011E7</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>63</v>
+      <c r="A36" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1000011.0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.000111E7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="1">
+        <v>217.0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.1011001E7</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
+      <c r="A37" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1000100.0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.0001111E7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.101101E7</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>65</v>
+      <c r="A38" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1000101.0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.001E7</v>
+      </c>
+      <c r="F38" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="1">
+        <v>219.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.1011011E7</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>66</v>
+      <c r="A39" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1000110.0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.0010001E7</v>
+      </c>
+      <c r="F39" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.10111E7</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>67</v>
+      <c r="A40" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1000111.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.001001E7</v>
+      </c>
+      <c r="F40" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="1">
+        <v>221.0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.1011101E7</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="s">
-        <v>68</v>
+      <c r="A41" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1001000.0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.0010011E7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="1">
+        <v>222.0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.101111E7</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
+      <c r="A42" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1001001.0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.00101E7</v>
+      </c>
+      <c r="F42" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="1">
+        <v>223.0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.1011111E7</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>70</v>
+      <c r="A43" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1001010.0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.0010101E7</v>
+      </c>
+      <c r="F43" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="1">
+        <v>224.0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.11E7</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>71</v>
+      <c r="A44" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1001011.0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.001011E7</v>
+      </c>
+      <c r="F44" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="1">
+        <v>225.0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.1100001E7</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="str">
-        <f>+</f>
-        <v>#ERROR!</v>
+      <c r="A45" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1001100.0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.0010111E7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="1">
+        <v>226.0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.110001E7</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>73</v>
+      <c r="A46" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1001101.0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1">
+        <v>152.0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.0011E7</v>
+      </c>
+      <c r="F46" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1.1100011E7</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>74</v>
+      <c r="A47" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1001110.0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.0011001E7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="1">
+        <v>228.0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.11001E7</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>75</v>
+      <c r="A48" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1001111.0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.001101E7</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.1100101E7</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>76</v>
+      <c r="A49" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1010000.0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.0011011E7</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1.110011E7</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>0.0</v>
+        <v>81.0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1010001.0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="1">
+        <v>156.0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.00111E7</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.1100111E7</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>1.0</v>
+        <v>82.0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1010010.0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.0011101E7</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" s="1">
+        <v>232.0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1.1101E7</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>2.0</v>
+        <v>83.0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1010011.0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.001111E7</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" s="1">
+        <v>233.0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1.1101001E7</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>3.0</v>
+        <v>84.0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1010100.0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="1">
+        <v>159.0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1.0011111E7</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" s="1">
+        <v>234.0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1.110101E7</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>4.0</v>
+        <v>85.0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1010101.0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.01E7</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1.1101011E7</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>5.0</v>
+        <v>86.0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1010110.0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1.0100001E7</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" s="1">
+        <v>236.0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1.11011E7</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>6.0</v>
+        <v>87.0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1010111.0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1.010001E7</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1.1101101E7</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>7.0</v>
+        <v>88.0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1011000.0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="1">
+        <v>163.0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.0100011E7</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="1">
+        <v>238.0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1.110111E7</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>8.0</v>
+        <v>89.0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1011001.0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="1">
+        <v>164.0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1.01001E7</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H58" s="1">
+        <v>239.0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.1101111E7</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>9.0</v>
+        <v>90.0</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1011010.0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1.0100101E7</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H59" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.111E7</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>77</v>
+      <c r="A60" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1011011.0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1.010011E7</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H60" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1.1110001E7</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>78</v>
+      <c r="A61" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1011100.0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1.0100111E7</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H61" s="1">
+        <v>242.0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1.111001E7</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>79</v>
+      <c r="A62" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1011101.0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1.0101E7</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1.1110011E7</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="str">
-        <f/>
-        <v>#ERROR!</v>
+      <c r="A63" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1011110.0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1.0101001E7</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H63" s="1">
+        <v>244.0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1.11101E7</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>81</v>
+      <c r="A64" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1011111.0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1.010101E7</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H64" s="1">
+        <v>245.0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1.1110101E7</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>82</v>
+      <c r="A65" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1100000.0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1.0101011E7</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H65" s="1">
+        <v>246.0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1.111011E7</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>83</v>
+      <c r="A66" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1100001.0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1.01011E7</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H66" s="1">
+        <v>247.0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1.1110111E7</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>84</v>
+      <c r="A67" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1100010.0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1.0101101E7</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H67" s="1">
+        <v>248.0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1.1111E7</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>85</v>
+      <c r="A68" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1100011.0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.010111E7</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H68" s="1">
+        <v>249.0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1.1111001E7</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>86</v>
+      <c r="A69" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1100100.0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1.0101111E7</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H69" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1.111101E7</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>87</v>
+      <c r="A70" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1100101.0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="1">
+        <v>176.0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.011E7</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H70" s="1">
+        <v>251.0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1.1111011E7</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>88</v>
+      <c r="A71" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1100110.0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="1">
+        <v>177.0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1.0110001E7</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H71" s="1">
+        <v>252.0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1.11111E7</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>89</v>
+      <c r="A72" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1100111.0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="1">
+        <v>178.0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1.011001E7</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H72" s="1">
+        <v>253.0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1.1111101E7</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>90</v>
+      <c r="A73" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1101000.0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="1">
+        <v>179.0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1.0110011E7</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H73" s="1">
+        <v>254.0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1.111111E7</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>91</v>
+      <c r="A74" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1101001.0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.01101E7</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H74" s="1">
+        <v>255.0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1.1111111E7</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>92</v>
+      <c r="A75" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1101010.0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="1">
+        <v>181.0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1.0110101E7</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>93</v>
+      <c r="A76" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1101011.0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="1">
+        <v>182.0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1.011011E7</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="77">

--- a/nibble_ascii.xlsx
+++ b/nibble_ascii.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="743">
   <si>
     <t>nibble 1 (bin)</t>
   </si>
@@ -455,754 +455,1792 @@
     <t>DEL</t>
   </si>
   <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>‚</t>
+  </si>
+  <si>
+    <t>ƒ</t>
+  </si>
+  <si>
+    <t>„</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>†</t>
+  </si>
+  <si>
+    <t>‡</t>
+  </si>
+  <si>
+    <t>ˆ</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>Š</t>
+  </si>
+  <si>
+    <t>‹</t>
+  </si>
+  <si>
+    <t>Œ</t>
+  </si>
+  <si>
+    <t>Ž</t>
+  </si>
+  <si>
+    <t>‘</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>“</t>
+  </si>
+  <si>
+    <t>”</t>
+  </si>
+  <si>
+    <t>•</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>˜</t>
+  </si>
+  <si>
+    <t>™</t>
+  </si>
+  <si>
+    <t>š</t>
+  </si>
+  <si>
+    <t>›</t>
+  </si>
+  <si>
+    <t>œ</t>
+  </si>
+  <si>
+    <t>ž</t>
+  </si>
+  <si>
+    <t>Ÿ</t>
+  </si>
+  <si>
+    <t>¡</t>
+  </si>
+  <si>
+    <t>¢</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>¤</t>
+  </si>
+  <si>
+    <t>¥</t>
+  </si>
+  <si>
+    <t>¦</t>
+  </si>
+  <si>
+    <t>§</t>
+  </si>
+  <si>
+    <t>¨</t>
+  </si>
+  <si>
+    <t>©</t>
+  </si>
+  <si>
+    <t>ª</t>
+  </si>
+  <si>
+    <t>«</t>
+  </si>
+  <si>
+    <t>¬</t>
+  </si>
+  <si>
+    <t>®</t>
+  </si>
+  <si>
+    <t>¯</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>²</t>
+  </si>
+  <si>
+    <t>³</t>
+  </si>
+  <si>
+    <t>´</t>
+  </si>
+  <si>
+    <t>µ</t>
+  </si>
+  <si>
+    <t>¶</t>
+  </si>
+  <si>
+    <t>·</t>
+  </si>
+  <si>
+    <t>¸</t>
+  </si>
+  <si>
+    <t>¹</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>»</t>
+  </si>
+  <si>
+    <t>¼</t>
+  </si>
+  <si>
+    <t>½</t>
+  </si>
+  <si>
+    <t>¾</t>
+  </si>
+  <si>
+    <t>¿</t>
+  </si>
+  <si>
+    <t>À</t>
+  </si>
+  <si>
+    <t>Á</t>
+  </si>
+  <si>
+    <t>Â</t>
+  </si>
+  <si>
+    <t>Ã</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Å</t>
+  </si>
+  <si>
+    <t>Æ</t>
+  </si>
+  <si>
     <t>Ç</t>
   </si>
   <si>
+    <t>È</t>
+  </si>
+  <si>
+    <t>É</t>
+  </si>
+  <si>
+    <t>Ê</t>
+  </si>
+  <si>
+    <t>Ë</t>
+  </si>
+  <si>
+    <t>Ì</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>Î</t>
+  </si>
+  <si>
+    <t>Ï</t>
+  </si>
+  <si>
+    <t>Ð</t>
+  </si>
+  <si>
+    <t>Ñ</t>
+  </si>
+  <si>
+    <t>Ò</t>
+  </si>
+  <si>
+    <t>Ó</t>
+  </si>
+  <si>
+    <t>Ô</t>
+  </si>
+  <si>
+    <t>Õ</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>Ù</t>
+  </si>
+  <si>
+    <t>Ú</t>
+  </si>
+  <si>
+    <t>Û</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>Þ</t>
+  </si>
+  <si>
+    <t>ß</t>
+  </si>
+  <si>
+    <t>à</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>â</t>
+  </si>
+  <si>
+    <t>ã</t>
+  </si>
+  <si>
+    <t>ä</t>
+  </si>
+  <si>
+    <t>å</t>
+  </si>
+  <si>
+    <t>æ</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>è</t>
+  </si>
+  <si>
+    <t>é</t>
+  </si>
+  <si>
+    <t>ê</t>
+  </si>
+  <si>
+    <t>ë</t>
+  </si>
+  <si>
+    <t>ì</t>
+  </si>
+  <si>
+    <t>í</t>
+  </si>
+  <si>
+    <t>î</t>
+  </si>
+  <si>
+    <t>ï</t>
+  </si>
+  <si>
+    <t>ð</t>
+  </si>
+  <si>
+    <t>ñ</t>
+  </si>
+  <si>
+    <t>ò</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>ô</t>
+  </si>
+  <si>
+    <t>õ</t>
+  </si>
+  <si>
+    <t>ö</t>
+  </si>
+  <si>
+    <t>÷</t>
+  </si>
+  <si>
+    <t>ø</t>
+  </si>
+  <si>
+    <t>ù</t>
+  </si>
+  <si>
+    <t>ú</t>
+  </si>
+  <si>
+    <t>û</t>
+  </si>
+  <si>
     <t>ü</t>
   </si>
   <si>
-    <t>é</t>
-  </si>
-  <si>
-    <t>â</t>
-  </si>
-  <si>
-    <t>ä</t>
-  </si>
-  <si>
-    <t>à</t>
-  </si>
-  <si>
-    <t>å</t>
-  </si>
-  <si>
-    <t>ç</t>
-  </si>
-  <si>
-    <t>ê</t>
-  </si>
-  <si>
-    <t>ë</t>
-  </si>
-  <si>
-    <t>è</t>
-  </si>
-  <si>
-    <t>ï</t>
-  </si>
-  <si>
-    <t>î</t>
-  </si>
-  <si>
-    <t>ì</t>
-  </si>
-  <si>
-    <t>Ä</t>
-  </si>
-  <si>
-    <t>Å</t>
-  </si>
-  <si>
-    <t>É</t>
-  </si>
-  <si>
-    <t>æ</t>
-  </si>
-  <si>
-    <t>Æ</t>
-  </si>
-  <si>
-    <t>ô</t>
-  </si>
-  <si>
-    <t>ö</t>
-  </si>
-  <si>
-    <t>ò</t>
-  </si>
-  <si>
-    <t>û</t>
-  </si>
-  <si>
-    <t>ù</t>
+    <t>ý</t>
+  </si>
+  <si>
+    <t>þ</t>
   </si>
   <si>
     <t>ÿ</t>
   </si>
   <si>
-    <t>Ö</t>
-  </si>
-  <si>
-    <t>Ü</t>
-  </si>
-  <si>
-    <t>ø</t>
-  </si>
-  <si>
-    <t>£</t>
-  </si>
-  <si>
-    <t>Ø</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>ƒ</t>
-  </si>
-  <si>
-    <t>á</t>
-  </si>
-  <si>
-    <t>ó</t>
-  </si>
-  <si>
-    <t>ú</t>
-  </si>
-  <si>
-    <t>ñ</t>
-  </si>
-  <si>
-    <t>Ñ</t>
-  </si>
-  <si>
-    <t>ª</t>
-  </si>
-  <si>
-    <t>º</t>
-  </si>
-  <si>
-    <t>¿</t>
-  </si>
-  <si>
-    <t>®</t>
-  </si>
-  <si>
-    <t>¬</t>
-  </si>
-  <si>
-    <t>½</t>
-  </si>
-  <si>
-    <t>¼</t>
-  </si>
-  <si>
-    <t>¡</t>
-  </si>
-  <si>
-    <t>«</t>
-  </si>
-  <si>
-    <t>»</t>
-  </si>
-  <si>
-    <t>░</t>
-  </si>
-  <si>
-    <t>▒</t>
-  </si>
-  <si>
-    <t>▓</t>
-  </si>
-  <si>
-    <t>│</t>
-  </si>
-  <si>
-    <t>┤</t>
-  </si>
-  <si>
-    <t>Á</t>
-  </si>
-  <si>
-    <t>Â</t>
-  </si>
-  <si>
-    <t>À</t>
-  </si>
-  <si>
-    <t>©</t>
-  </si>
-  <si>
-    <t>╣</t>
-  </si>
-  <si>
-    <t>║</t>
-  </si>
-  <si>
-    <t>╗</t>
-  </si>
-  <si>
-    <t>╝</t>
-  </si>
-  <si>
-    <t>¢</t>
-  </si>
-  <si>
-    <t>¥</t>
-  </si>
-  <si>
-    <t>┐</t>
-  </si>
-  <si>
-    <t>└</t>
-  </si>
-  <si>
-    <t>┴</t>
-  </si>
-  <si>
-    <t>┬</t>
-  </si>
-  <si>
-    <t>├</t>
-  </si>
-  <si>
-    <t>─</t>
-  </si>
-  <si>
-    <t>┼</t>
-  </si>
-  <si>
-    <t>ã</t>
-  </si>
-  <si>
-    <t>Ã</t>
-  </si>
-  <si>
-    <t>╚</t>
-  </si>
-  <si>
-    <t>╔</t>
-  </si>
-  <si>
-    <t>╩</t>
-  </si>
-  <si>
-    <t>╦</t>
-  </si>
-  <si>
-    <t>╠</t>
-  </si>
-  <si>
-    <t>═</t>
-  </si>
-  <si>
-    <t>╬</t>
-  </si>
-  <si>
-    <t>¤</t>
-  </si>
-  <si>
-    <t>ð</t>
-  </si>
-  <si>
-    <t>Ð</t>
-  </si>
-  <si>
-    <t>Ê</t>
-  </si>
-  <si>
-    <t>Ë</t>
-  </si>
-  <si>
-    <t>È</t>
-  </si>
-  <si>
-    <t>ı</t>
-  </si>
-  <si>
-    <t>Í</t>
-  </si>
-  <si>
-    <t>Î</t>
-  </si>
-  <si>
-    <t>Ï</t>
-  </si>
-  <si>
-    <t>┘</t>
-  </si>
-  <si>
-    <t>┌</t>
-  </si>
-  <si>
-    <t>█</t>
-  </si>
-  <si>
-    <t>▄</t>
-  </si>
-  <si>
-    <t>¦</t>
-  </si>
-  <si>
-    <t>Ì</t>
-  </si>
-  <si>
-    <t>▀</t>
-  </si>
-  <si>
-    <t>Ó</t>
-  </si>
-  <si>
-    <t>ß</t>
-  </si>
-  <si>
-    <t>Ô</t>
-  </si>
-  <si>
-    <t>Ò</t>
-  </si>
-  <si>
-    <t>õ</t>
-  </si>
-  <si>
-    <t>Õ</t>
-  </si>
-  <si>
-    <t>µ</t>
-  </si>
-  <si>
-    <t>þ</t>
-  </si>
-  <si>
-    <t>Þ</t>
-  </si>
-  <si>
-    <t>Ú</t>
-  </si>
-  <si>
-    <t>Û</t>
-  </si>
-  <si>
-    <t>Ù</t>
-  </si>
-  <si>
-    <t>ý</t>
-  </si>
-  <si>
-    <t>Ý</t>
-  </si>
-  <si>
-    <t>¯</t>
-  </si>
-  <si>
-    <t>´</t>
-  </si>
-  <si>
-    <t>­­</t>
-  </si>
-  <si>
-    <t>±</t>
-  </si>
-  <si>
-    <t>‗</t>
-  </si>
-  <si>
-    <t>¾</t>
-  </si>
-  <si>
-    <t>¶</t>
-  </si>
-  <si>
-    <t>§</t>
-  </si>
-  <si>
-    <t>÷</t>
-  </si>
-  <si>
-    <t>¸</t>
-  </si>
-  <si>
-    <t>°</t>
-  </si>
-  <si>
-    <t>¨</t>
-  </si>
-  <si>
-    <t>·</t>
-  </si>
-  <si>
-    <t>¹</t>
-  </si>
-  <si>
-    <t>³</t>
-  </si>
-  <si>
-    <t>²</t>
-  </si>
-  <si>
-    <t>■</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Binário</t>
-  </si>
-  <si>
-    <t>Char</t>
-  </si>
-  <si>
-    <t>Hex</t>
-  </si>
-  <si>
-    <t>6C</t>
+    <t>&amp;#128;</t>
+  </si>
+  <si>
+    <t>&amp;euro;</t>
+  </si>
+  <si>
+    <t>Euro sign</t>
+  </si>
+  <si>
+    <t>&amp;#130;</t>
+  </si>
+  <si>
+    <t>&amp;sbquo;</t>
+  </si>
+  <si>
+    <t>Single low-9 quotation mark</t>
+  </si>
+  <si>
+    <t>&amp;#131;</t>
+  </si>
+  <si>
+    <t>&amp;fnof;</t>
+  </si>
+  <si>
+    <t>Latin small letter f with hook</t>
+  </si>
+  <si>
+    <t>&amp;#132;</t>
+  </si>
+  <si>
+    <t>&amp;bdquo;</t>
+  </si>
+  <si>
+    <t>Double low-9 quotation mark</t>
+  </si>
+  <si>
+    <t>&amp;#133;</t>
+  </si>
+  <si>
+    <t>&amp;hellip;</t>
+  </si>
+  <si>
+    <t>Horizontal ellipsis</t>
+  </si>
+  <si>
+    <t>&amp;#134;</t>
+  </si>
+  <si>
+    <t>&amp;dagger;</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>&amp;#135;</t>
+  </si>
+  <si>
+    <t>&amp;Dagger;</t>
+  </si>
+  <si>
+    <t>Double dagger</t>
+  </si>
+  <si>
+    <t>&amp;#136;</t>
+  </si>
+  <si>
+    <t>&amp;circ;</t>
+  </si>
+  <si>
+    <t>Modifier letter circumflex accent</t>
+  </si>
+  <si>
+    <t>&amp;#137;</t>
+  </si>
+  <si>
+    <t>&amp;permil;</t>
+  </si>
+  <si>
+    <t>Per mille sign</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>&amp;#138;</t>
+  </si>
+  <si>
+    <t>&amp;Scaron;</t>
+  </si>
+  <si>
+    <t>Latin capital letter S with caron</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>&amp;#139;</t>
+  </si>
+  <si>
+    <t>&amp;lsaquo;</t>
+  </si>
+  <si>
+    <t>Single left-pointing angle quotation</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>&amp;#140;</t>
+  </si>
+  <si>
+    <t>&amp;OElig;</t>
+  </si>
+  <si>
+    <t>Latin capital ligature OE</t>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>8E</t>
+  </si>
+  <si>
+    <t>&amp;#142;</t>
+  </si>
+  <si>
+    <t>Latin captial letter Z with caron</t>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>&amp;#145;</t>
+  </si>
+  <si>
+    <t>&amp;lsquo;</t>
+  </si>
+  <si>
+    <t>Left single quotation mark</t>
+  </si>
+  <si>
+    <t>&amp;#146;</t>
+  </si>
+  <si>
+    <t>&amp;rsquo;</t>
+  </si>
+  <si>
+    <t>Right single quotation mark</t>
+  </si>
+  <si>
+    <t>&amp;#147;</t>
+  </si>
+  <si>
+    <t>&amp;ldquo;</t>
+  </si>
+  <si>
+    <t>Left double quotation mark</t>
+  </si>
+  <si>
+    <t>&amp;#148;</t>
+  </si>
+  <si>
+    <t>&amp;rdquo;</t>
+  </si>
+  <si>
+    <t>Right double quotation mark</t>
+  </si>
+  <si>
+    <t>&amp;#149;</t>
+  </si>
+  <si>
+    <t>&amp;bull;</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>&amp;#150;</t>
+  </si>
+  <si>
+    <t>&amp;ndash;</t>
+  </si>
+  <si>
+    <t>En dash</t>
+  </si>
+  <si>
+    <t>&amp;#151;</t>
+  </si>
+  <si>
+    <t>&amp;mdash;</t>
+  </si>
+  <si>
+    <t>Em dash</t>
+  </si>
+  <si>
+    <t>&amp;#152;</t>
+  </si>
+  <si>
+    <t>&amp;tilde;</t>
+  </si>
+  <si>
+    <t>Small tilde</t>
+  </si>
+  <si>
+    <t>&amp;#153;</t>
+  </si>
+  <si>
+    <t>&amp;trade;</t>
+  </si>
+  <si>
+    <t>Trade mark sign</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>&amp;#154;</t>
+  </si>
+  <si>
+    <t>&amp;scaron;</t>
+  </si>
+  <si>
+    <t>Latin small letter S with caron</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>&amp;#155;</t>
+  </si>
+  <si>
+    <t>&amp;rsaquo;</t>
+  </si>
+  <si>
+    <t>Single right-pointing angle quotation mark</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>&amp;#156;</t>
+  </si>
+  <si>
+    <t>&amp;oelig;</t>
+  </si>
+  <si>
+    <t>Latin small ligature oe</t>
+  </si>
+  <si>
+    <t>9D</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>&amp;#158;</t>
+  </si>
+  <si>
+    <t>Latin small letter z with caron</t>
+  </si>
+  <si>
+    <t>9F</t>
+  </si>
+  <si>
+    <t>&amp;#159;</t>
+  </si>
+  <si>
+    <t>&amp;Yuml;</t>
+  </si>
+  <si>
+    <t>Latin capital letter Y with diaeresis</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>&amp;#160;</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>Non-breaking space</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>&amp;#161;</t>
+  </si>
+  <si>
+    <t>&amp;iexcl;</t>
+  </si>
+  <si>
+    <t>Inverted exclamation mark</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>&amp;#162;</t>
+  </si>
+  <si>
+    <t>&amp;cent;</t>
+  </si>
+  <si>
+    <t>Cent sign</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>&amp;#163;</t>
+  </si>
+  <si>
+    <t>&amp;pound;</t>
+  </si>
+  <si>
+    <t>Pound sign</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>&amp;#164;</t>
+  </si>
+  <si>
+    <t>&amp;curren;</t>
+  </si>
+  <si>
+    <t>Currency sign</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>&amp;#165;</t>
+  </si>
+  <si>
+    <t>&amp;yen;</t>
+  </si>
+  <si>
+    <t>Yen sign</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>&amp;#166;</t>
+  </si>
+  <si>
+    <t>&amp;brvbar;</t>
+  </si>
+  <si>
+    <t>Pipe, Broken vertical bar</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>&amp;#167;</t>
+  </si>
+  <si>
+    <t>&amp;sect;</t>
+  </si>
+  <si>
+    <t>Section sign</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>&amp;#168;</t>
+  </si>
+  <si>
+    <t>&amp;uml;</t>
+  </si>
+  <si>
+    <t>Spacing diaeresis - umlaut</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>&amp;#169;</t>
+  </si>
+  <si>
+    <t>&amp;copy;</t>
+  </si>
+  <si>
+    <t>Copyright sign</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>&amp;#170;</t>
+  </si>
+  <si>
+    <t>&amp;ordf;</t>
+  </si>
+  <si>
+    <t>Feminine ordinal indicator</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>&amp;#171;</t>
+  </si>
+  <si>
+    <t>&amp;laquo;</t>
+  </si>
+  <si>
+    <t>Left double angle quotes</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>&amp;#172;</t>
+  </si>
+  <si>
+    <t>&amp;not;</t>
+  </si>
+  <si>
+    <t>Not sign</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>&amp;#173;</t>
+  </si>
+  <si>
+    <t>&amp;shy;</t>
+  </si>
+  <si>
+    <t>Soft hyphen</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>&amp;#174;</t>
+  </si>
+  <si>
+    <t>&amp;reg;</t>
+  </si>
+  <si>
+    <t>Registered trade mark sign</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>&amp;#175;</t>
+  </si>
+  <si>
+    <t>&amp;macr;</t>
+  </si>
+  <si>
+    <t>Spacing macron - overline</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>&amp;#176;</t>
+  </si>
+  <si>
+    <t>&amp;deg;</t>
+  </si>
+  <si>
+    <t>Degree sign</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>&amp;#177;</t>
+  </si>
+  <si>
+    <t>&amp;plusmn;</t>
+  </si>
+  <si>
+    <t>Plus-or-minus sign</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>&amp;#178;</t>
+  </si>
+  <si>
+    <t>&amp;sup2;</t>
+  </si>
+  <si>
+    <t>Superscript two - squared</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>&amp;#179;</t>
+  </si>
+  <si>
+    <t>&amp;sup3;</t>
+  </si>
+  <si>
+    <t>Superscript three - cubed</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>&amp;#180;</t>
+  </si>
+  <si>
+    <t>&amp;acute;</t>
+  </si>
+  <si>
+    <t>Acute accent - spacing acute</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>&amp;#181;</t>
+  </si>
+  <si>
+    <t>&amp;micro;</t>
+  </si>
+  <si>
+    <t>Micro sign</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>&amp;#182;</t>
+  </si>
+  <si>
+    <t>&amp;para;</t>
+  </si>
+  <si>
+    <t>Pilcrow sign - paragraph sign</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>6D</t>
+    <t>&amp;#183;</t>
+  </si>
+  <si>
+    <t>&amp;middot;</t>
+  </si>
+  <si>
+    <t>Middle dot - Georgian comma</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>6E</t>
+    <t>&amp;#184;</t>
+  </si>
+  <si>
+    <t>&amp;cedil;</t>
+  </si>
+  <si>
+    <t>Spacing cedilla</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>6F</t>
+    <t>&amp;#185;</t>
+  </si>
+  <si>
+    <t>&amp;sup1;</t>
+  </si>
+  <si>
+    <t>Superscript one</t>
   </si>
   <si>
     <t>BA</t>
   </si>
   <si>
+    <t>&amp;#186;</t>
+  </si>
+  <si>
+    <t>&amp;ordm;</t>
+  </si>
+  <si>
+    <t>Masculine ordinal indicator</t>
+  </si>
+  <si>
     <t>BB</t>
   </si>
   <si>
+    <t>&amp;#187;</t>
+  </si>
+  <si>
+    <t>&amp;raquo;</t>
+  </si>
+  <si>
+    <t>Right double angle quotes</t>
+  </si>
+  <si>
     <t>BC</t>
   </si>
   <si>
+    <t>&amp;#188;</t>
+  </si>
+  <si>
+    <t>&amp;frac14;</t>
+  </si>
+  <si>
+    <t>Fraction one quarter</t>
+  </si>
+  <si>
     <t>BD</t>
   </si>
   <si>
+    <t>&amp;#189;</t>
+  </si>
+  <si>
+    <t>&amp;frac12;</t>
+  </si>
+  <si>
+    <t>Fraction one half</t>
+  </si>
+  <si>
     <t>BE</t>
   </si>
   <si>
+    <t>&amp;#190;</t>
+  </si>
+  <si>
+    <t>&amp;frac34;</t>
+  </si>
+  <si>
+    <t>Fraction three quarters</t>
+  </si>
+  <si>
     <t>BF</t>
   </si>
   <si>
+    <t>&amp;#191;</t>
+  </si>
+  <si>
+    <t>&amp;iquest;</t>
+  </si>
+  <si>
+    <t>Inverted question mark</t>
+  </si>
+  <si>
     <t>C0</t>
   </si>
   <si>
+    <t>&amp;#192;</t>
+  </si>
+  <si>
+    <t>&amp;Agrave;</t>
+  </si>
+  <si>
+    <t>Latin capital letter A with grave</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
+    <t>&amp;#193;</t>
+  </si>
+  <si>
+    <t>&amp;Aacute;</t>
+  </si>
+  <si>
+    <t>Latin capital letter A with acute</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>–</t>
+    <t>&amp;#194;</t>
+  </si>
+  <si>
+    <t>&amp;Acirc;</t>
+  </si>
+  <si>
+    <t>Latin capital letter A with circumflex</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
+    <t>&amp;#195;</t>
+  </si>
+  <si>
+    <t>&amp;Atilde;</t>
+  </si>
+  <si>
+    <t>Latin capital letter A with tilde</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>7A</t>
+    <t>&amp;#196;</t>
+  </si>
+  <si>
+    <t>&amp;Auml;</t>
+  </si>
+  <si>
+    <t>Latin capital letter A with diaeresis</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>7B</t>
+    <t>&amp;#197;</t>
+  </si>
+  <si>
+    <t>&amp;Aring;</t>
+  </si>
+  <si>
+    <t>Latin capital letter A with ring above</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>7C</t>
+    <t>&amp;#198;</t>
+  </si>
+  <si>
+    <t>&amp;AElig;</t>
+  </si>
+  <si>
+    <t>Latin capital letter AE</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>7D</t>
+    <t>&amp;#199;</t>
+  </si>
+  <si>
+    <t>&amp;Ccedil;</t>
+  </si>
+  <si>
+    <t>Latin capital letter C with cedilla</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>7E</t>
+    <t>&amp;#200;</t>
+  </si>
+  <si>
+    <t>&amp;Egrave;</t>
+  </si>
+  <si>
+    <t>Latin capital letter E with grave</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>Del</t>
+    <t>&amp;#201;</t>
+  </si>
+  <si>
+    <t>&amp;Eacute;</t>
+  </si>
+  <si>
+    <t>Latin capital letter E with acute</t>
   </si>
   <si>
     <t>CA</t>
   </si>
   <si>
+    <t>&amp;#202;</t>
+  </si>
+  <si>
+    <t>&amp;Ecirc;</t>
+  </si>
+  <si>
+    <t>Latin capital letter E with circumflex</t>
+  </si>
+  <si>
     <t>CB</t>
   </si>
   <si>
+    <t>&amp;#203;</t>
+  </si>
+  <si>
+    <t>&amp;Euml;</t>
+  </si>
+  <si>
+    <t>Latin capital letter E with diaeresis</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
+    <t>&amp;#204;</t>
+  </si>
+  <si>
+    <t>&amp;Igrave;</t>
+  </si>
+  <si>
+    <t>Latin capital letter I with grave</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
+    <t>&amp;#205;</t>
+  </si>
+  <si>
+    <t>&amp;Iacute;</t>
+  </si>
+  <si>
+    <t>Latin capital letter I with acute</t>
+  </si>
+  <si>
     <t>CE</t>
   </si>
   <si>
+    <t>&amp;#206;</t>
+  </si>
+  <si>
+    <t>&amp;Icirc;</t>
+  </si>
+  <si>
+    <t>Latin capital letter I with circumflex</t>
+  </si>
+  <si>
     <t>CF</t>
   </si>
   <si>
+    <t>&amp;#207;</t>
+  </si>
+  <si>
+    <t>&amp;Iuml;</t>
+  </si>
+  <si>
+    <t>Latin capital letter I with diaeresis</t>
+  </si>
+  <si>
     <t>D0</t>
   </si>
   <si>
+    <t>&amp;#208;</t>
+  </si>
+  <si>
+    <t>&amp;ETH;</t>
+  </si>
+  <si>
+    <t>Latin capital letter ETH</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
+    <t>&amp;#209;</t>
+  </si>
+  <si>
+    <t>&amp;Ntilde;</t>
+  </si>
+  <si>
+    <t>Latin capital letter N with tilde</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
+    <t>&amp;#210;</t>
+  </si>
+  <si>
+    <t>&amp;Ograve;</t>
+  </si>
+  <si>
+    <t>Latin capital letter O with grave</t>
+  </si>
+  <si>
     <t>D3</t>
   </si>
   <si>
+    <t>&amp;#211;</t>
+  </si>
+  <si>
+    <t>&amp;Oacute;</t>
+  </si>
+  <si>
+    <t>Latin capital letter O with acute</t>
+  </si>
+  <si>
     <t>D4</t>
   </si>
   <si>
-    <t>8A</t>
+    <t>&amp;#212;</t>
+  </si>
+  <si>
+    <t>&amp;Ocirc;</t>
+  </si>
+  <si>
+    <t>Latin capital letter O with circumflex</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>8B</t>
+    <t>&amp;#213;</t>
+  </si>
+  <si>
+    <t>&amp;Otilde;</t>
+  </si>
+  <si>
+    <t>Latin capital letter O with tilde</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>8C</t>
+    <t>&amp;#214;</t>
+  </si>
+  <si>
+    <t>&amp;Ouml;</t>
+  </si>
+  <si>
+    <t>Latin capital letter O with diaeresis</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>8D</t>
+    <t>&amp;#215;</t>
+  </si>
+  <si>
+    <t>&amp;times;</t>
+  </si>
+  <si>
+    <t>Multiplication sign</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>8E</t>
+    <t>&amp;#216;</t>
+  </si>
+  <si>
+    <t>&amp;Oslash;</t>
+  </si>
+  <si>
+    <t>Latin capital letter O with slash</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>8F</t>
+    <t>&amp;#217;</t>
+  </si>
+  <si>
+    <t>&amp;Ugrave;</t>
+  </si>
+  <si>
+    <t>Latin capital letter U with grave</t>
   </si>
   <si>
     <t>DA</t>
   </si>
   <si>
+    <t>&amp;#218;</t>
+  </si>
+  <si>
+    <t>&amp;Uacute;</t>
+  </si>
+  <si>
+    <t>Latin capital letter U with acute</t>
+  </si>
+  <si>
     <t>DB</t>
   </si>
   <si>
+    <t>&amp;#219;</t>
+  </si>
+  <si>
+    <t>&amp;Ucirc;</t>
+  </si>
+  <si>
+    <t>Latin capital letter U with circumflex</t>
+  </si>
+  <si>
     <t>DC</t>
   </si>
   <si>
+    <t>&amp;#220;</t>
+  </si>
+  <si>
+    <t>&amp;Uuml;</t>
+  </si>
+  <si>
+    <t>Latin capital letter U with diaeresis</t>
+  </si>
+  <si>
     <t>DD</t>
   </si>
   <si>
+    <t>&amp;#221;</t>
+  </si>
+  <si>
+    <t>&amp;Yacute;</t>
+  </si>
+  <si>
+    <t>Latin capital letter Y with acute</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>&amp;#222;</t>
+  </si>
+  <si>
+    <t>&amp;THORN;</t>
+  </si>
+  <si>
+    <t>Latin capital letter THORN</t>
+  </si>
+  <si>
     <t>DF</t>
   </si>
   <si>
+    <t>&amp;#223;</t>
+  </si>
+  <si>
+    <t>&amp;szlig;</t>
+  </si>
+  <si>
+    <t>Latin small letter sharp s - ess-zed</t>
+  </si>
+  <si>
     <t>E0</t>
   </si>
   <si>
+    <t>&amp;#224;</t>
+  </si>
+  <si>
+    <t>&amp;agrave;</t>
+  </si>
+  <si>
+    <t>Latin small letter a with grave</t>
+  </si>
+  <si>
     <t>E1</t>
   </si>
   <si>
+    <t>&amp;#225;</t>
+  </si>
+  <si>
+    <t>&amp;aacute;</t>
+  </si>
+  <si>
+    <t>Latin small letter a with acute</t>
+  </si>
+  <si>
     <t>E2</t>
   </si>
   <si>
+    <t>&amp;#226;</t>
+  </si>
+  <si>
+    <t>&amp;acirc;</t>
+  </si>
+  <si>
+    <t>Latin small letter a with circumflex</t>
+  </si>
+  <si>
     <t>E3</t>
   </si>
   <si>
+    <t>&amp;#227;</t>
+  </si>
+  <si>
+    <t>&amp;atilde;</t>
+  </si>
+  <si>
+    <t>Latin small letter a with tilde</t>
+  </si>
+  <si>
     <t>E4</t>
   </si>
   <si>
-    <t>9A</t>
+    <t>&amp;#228;</t>
+  </si>
+  <si>
+    <t>&amp;auml;</t>
+  </si>
+  <si>
+    <t>Latin small letter a with diaeresis</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>9B</t>
+    <t>&amp;#229;</t>
+  </si>
+  <si>
+    <t>&amp;aring;</t>
+  </si>
+  <si>
+    <t>Latin small letter a with ring above</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>9C</t>
+    <t>&amp;#230;</t>
+  </si>
+  <si>
+    <t>&amp;aelig;</t>
+  </si>
+  <si>
+    <t>Latin small letter ae</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>9D</t>
+    <t>&amp;#231;</t>
+  </si>
+  <si>
+    <t>&amp;ccedil;</t>
+  </si>
+  <si>
+    <t>Latin small letter c with cedilla</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>9E</t>
+    <t>&amp;#232;</t>
+  </si>
+  <si>
+    <t>&amp;egrave;</t>
+  </si>
+  <si>
+    <t>Latin small letter e with grave</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>9F</t>
+    <t>&amp;#233;</t>
+  </si>
+  <si>
+    <t>&amp;eacute;</t>
+  </si>
+  <si>
+    <t>Latin small letter e with acute</t>
   </si>
   <si>
     <t>EA</t>
   </si>
   <si>
-    <t>A0</t>
+    <t>&amp;#234;</t>
+  </si>
+  <si>
+    <t>&amp;ecirc;</t>
+  </si>
+  <si>
+    <t>Latin small letter e with circumflex</t>
   </si>
   <si>
     <t>EB</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>&amp;#235;</t>
+  </si>
+  <si>
+    <t>&amp;euml;</t>
+  </si>
+  <si>
+    <t>Latin small letter e with diaeresis</t>
   </si>
   <si>
     <t>EC</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>&amp;#236;</t>
+  </si>
+  <si>
+    <t>&amp;igrave;</t>
+  </si>
+  <si>
+    <t>Latin small letter i with grave</t>
   </si>
   <si>
     <t>ED</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>&amp;#237;</t>
+  </si>
+  <si>
+    <t>&amp;iacute;</t>
+  </si>
+  <si>
+    <t>Latin small letter i with acute</t>
   </si>
   <si>
     <t>EE</t>
   </si>
   <si>
-    <t>A4</t>
+    <t>&amp;#238;</t>
+  </si>
+  <si>
+    <t>&amp;icirc;</t>
+  </si>
+  <si>
+    <t>Latin small letter i with circumflex</t>
   </si>
   <si>
     <t>EF</t>
   </si>
   <si>
-    <t>A5</t>
+    <t>&amp;#239;</t>
+  </si>
+  <si>
+    <t>&amp;iuml;</t>
+  </si>
+  <si>
+    <t>Latin small letter i with diaeresis</t>
   </si>
   <si>
     <t>F0</t>
   </si>
   <si>
-    <t>A6</t>
+    <t>&amp;#240;</t>
+  </si>
+  <si>
+    <t>&amp;eth;</t>
+  </si>
+  <si>
+    <t>Latin small letter eth</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>A7</t>
+    <t>&amp;#241;</t>
+  </si>
+  <si>
+    <t>&amp;ntilde;</t>
+  </si>
+  <si>
+    <t>Latin small letter n with tilde</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>A8</t>
+    <t>&amp;#242;</t>
+  </si>
+  <si>
+    <t>&amp;ograve;</t>
+  </si>
+  <si>
+    <t>Latin small letter o with grave</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>A9</t>
+    <t>&amp;#243;</t>
+  </si>
+  <si>
+    <t>&amp;oacute;</t>
+  </si>
+  <si>
+    <t>Latin small letter o with acute</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>AA</t>
+    <t>&amp;#244;</t>
+  </si>
+  <si>
+    <t>&amp;ocirc;</t>
+  </si>
+  <si>
+    <t>Latin small letter o with circumflex</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>AB</t>
+    <t>&amp;#245;</t>
+  </si>
+  <si>
+    <t>&amp;otilde;</t>
+  </si>
+  <si>
+    <t>Latin small letter o with tilde</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>AC</t>
+    <t>&amp;#246;</t>
+  </si>
+  <si>
+    <t>&amp;ouml;</t>
+  </si>
+  <si>
+    <t>Latin small letter o with diaeresis</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>AD</t>
+    <t>&amp;#247;</t>
+  </si>
+  <si>
+    <t>&amp;divide;</t>
+  </si>
+  <si>
+    <t>Division sign</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>AE</t>
+    <t>&amp;#248;</t>
+  </si>
+  <si>
+    <t>&amp;oslash;</t>
+  </si>
+  <si>
+    <t>Latin small letter o with slash</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>AF</t>
+    <t>&amp;#249;</t>
+  </si>
+  <si>
+    <t>&amp;ugrave;</t>
+  </si>
+  <si>
+    <t>Latin small letter u with grave</t>
   </si>
   <si>
     <t>FA</t>
   </si>
   <si>
-    <t>B0</t>
+    <t>&amp;#250;</t>
+  </si>
+  <si>
+    <t>&amp;uacute;</t>
+  </si>
+  <si>
+    <t>Latin small letter u with acute</t>
   </si>
   <si>
     <t>FB</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>&amp;#251;</t>
+  </si>
+  <si>
+    <t>&amp;ucirc;</t>
+  </si>
+  <si>
+    <t>Latin small letter u with circumflex</t>
   </si>
   <si>
     <t>FC</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>&amp;#252;</t>
+  </si>
+  <si>
+    <t>&amp;uuml;</t>
+  </si>
+  <si>
+    <t>Latin small letter u with diaeresis</t>
   </si>
   <si>
     <t>FD</t>
   </si>
   <si>
-    <t>B3</t>
+    <t>&amp;#253;</t>
+  </si>
+  <si>
+    <t>&amp;yacute;</t>
+  </si>
+  <si>
+    <t>Latin small letter y with acute</t>
   </si>
   <si>
     <t>FE</t>
   </si>
   <si>
-    <t>B4</t>
+    <t>&amp;#254;</t>
+  </si>
+  <si>
+    <t>&amp;thorn;</t>
+  </si>
+  <si>
+    <t>Latin small letter thorn</t>
   </si>
   <si>
     <t>FF</t>
   </si>
   <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
+    <t>&amp;#255;</t>
+  </si>
+  <si>
+    <t>&amp;yuml;</t>
+  </si>
+  <si>
+    <t>Latin small letter y with diaer</t>
   </si>
 </sst>
 </file>
@@ -5483,9 +6521,6 @@
       <c r="B131" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E131" s="1">
         <v>1500.0</v>
       </c>
@@ -5507,7 +6542,7 @@
         <v>17</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E132" s="1">
         <v>1500.0</v>
@@ -5530,7 +6565,7 @@
         <v>19</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E133" s="1">
         <v>1500.0</v>
@@ -5553,7 +6588,7 @@
         <v>21</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E134" s="1">
         <v>1500.0</v>
@@ -5576,7 +6611,7 @@
         <v>23</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E135" s="1">
         <v>1500.0</v>
@@ -5599,7 +6634,7 @@
         <v>25</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E136" s="1">
         <v>1500.0</v>
@@ -5622,7 +6657,7 @@
         <v>27</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E137" s="1">
         <v>1500.0</v>
@@ -5645,7 +6680,7 @@
         <v>29</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E138" s="1">
         <v>1500.0</v>
@@ -5667,7 +6702,7 @@
         <v>31</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E139" s="1">
         <v>1500.0</v>
@@ -5686,7 +6721,7 @@
         <v>33</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E140" s="1">
         <v>1500.0</v>
@@ -5705,7 +6740,7 @@
         <v>35</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E141" s="1">
         <v>1500.0</v>
@@ -5724,7 +6759,7 @@
         <v>37</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E142" s="1">
         <v>1500.0</v>
@@ -5742,9 +6777,6 @@
       <c r="B143" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E143" s="1">
         <v>1500.0</v>
       </c>
@@ -5762,7 +6794,7 @@
         <v>41</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E144" s="1">
         <v>1500.0</v>
@@ -5780,9 +6812,6 @@
       <c r="B145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="E145" s="1">
         <v>1500.0</v>
       </c>
@@ -5799,9 +6828,6 @@
       <c r="B146" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E146" s="1">
         <v>1562.5</v>
       </c>
@@ -5818,7 +6844,7 @@
         <v>15</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E147" s="1">
         <v>1562.5</v>
@@ -5837,7 +6863,7 @@
         <v>17</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E148" s="1">
         <v>1562.5</v>
@@ -5856,7 +6882,7 @@
         <v>19</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E149" s="1">
         <v>1562.5</v>
@@ -5875,7 +6901,7 @@
         <v>21</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E150" s="1">
         <v>1562.5</v>
@@ -5894,7 +6920,7 @@
         <v>23</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E151" s="1">
         <v>1562.5</v>
@@ -5913,7 +6939,7 @@
         <v>25</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E152" s="1">
         <v>1562.5</v>
@@ -5932,7 +6958,7 @@
         <v>27</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E153" s="1">
         <v>1562.5</v>
@@ -5951,7 +6977,7 @@
         <v>29</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E154" s="1">
         <v>1562.5</v>
@@ -5970,7 +6996,7 @@
         <v>31</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E155" s="1">
         <v>1562.5</v>
@@ -5989,7 +7015,7 @@
         <v>33</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E156" s="1">
         <v>1562.5</v>
@@ -6008,7 +7034,7 @@
         <v>35</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E157" s="1">
         <v>1562.5</v>
@@ -6027,7 +7053,7 @@
         <v>37</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E158" s="1">
         <v>1562.5</v>
@@ -6045,9 +7071,6 @@
       <c r="B159" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E159" s="1">
         <v>1562.5</v>
       </c>
@@ -6065,7 +7088,7 @@
         <v>41</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E160" s="1">
         <v>1562.5</v>
@@ -6084,7 +7107,7 @@
         <v>43</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E161" s="1">
         <v>1562.5</v>
@@ -6102,9 +7125,6 @@
       <c r="B162" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E162" s="4">
         <f>E161+62.5</f>
         <v>1625</v>
@@ -6122,7 +7142,7 @@
         <v>15</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E163" s="1">
         <v>1625.0</v>
@@ -6141,7 +7161,7 @@
         <v>17</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E164" s="1">
         <v>1625.0</v>
@@ -6160,7 +7180,7 @@
         <v>19</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E165" s="1">
         <v>1625.0</v>
@@ -6179,7 +7199,7 @@
         <v>21</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E166" s="1">
         <v>1625.0</v>
@@ -6198,7 +7218,7 @@
         <v>23</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E167" s="1">
         <v>1625.0</v>
@@ -6217,7 +7237,7 @@
         <v>25</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E168" s="1">
         <v>1625.0</v>
@@ -6236,7 +7256,7 @@
         <v>27</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E169" s="1">
         <v>1628.0</v>
@@ -6255,7 +7275,7 @@
         <v>29</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E170" s="1">
         <v>1625.0</v>
@@ -6274,7 +7294,7 @@
         <v>31</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E171" s="1">
         <v>1625.0</v>
@@ -6293,7 +7313,7 @@
         <v>33</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E172" s="1">
         <v>1625.0</v>
@@ -6312,7 +7332,7 @@
         <v>35</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E173" s="1">
         <v>1625.0</v>
@@ -6331,7 +7351,7 @@
         <v>37</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E174" s="1">
         <v>1625.0</v>
@@ -6349,9 +7369,6 @@
       <c r="B175" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E175" s="1">
         <v>1625.0</v>
       </c>
@@ -6369,7 +7386,7 @@
         <v>41</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E176" s="1">
         <v>1625.0</v>
@@ -6388,7 +7405,7 @@
         <v>43</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E177" s="1">
         <v>1625.0</v>
@@ -6407,7 +7424,7 @@
         <v>9</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E178" s="4">
         <f>E177+62.5</f>
@@ -6426,7 +7443,7 @@
         <v>15</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E179" s="1">
         <v>1687.5</v>
@@ -6445,7 +7462,7 @@
         <v>17</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E180" s="1">
         <v>1687.5</v>
@@ -6464,7 +7481,7 @@
         <v>19</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E181" s="1">
         <v>1687.5</v>
@@ -6483,7 +7500,7 @@
         <v>21</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E182" s="1">
         <v>1687.5</v>
@@ -6502,7 +7519,7 @@
         <v>23</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E183" s="1">
         <v>1687.5</v>
@@ -6521,7 +7538,7 @@
         <v>25</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E184" s="1">
         <v>1687.5</v>
@@ -6540,7 +7557,7 @@
         <v>27</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E185" s="1">
         <v>1687.5</v>
@@ -6559,7 +7576,7 @@
         <v>29</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E186" s="1">
         <v>1687.5</v>
@@ -6578,7 +7595,7 @@
         <v>31</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E187" s="1">
         <v>1687.5</v>
@@ -6597,7 +7614,7 @@
         <v>33</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E188" s="1">
         <v>1687.5</v>
@@ -6616,7 +7633,7 @@
         <v>35</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E189" s="1">
         <v>1687.5</v>
@@ -6635,7 +7652,7 @@
         <v>37</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E190" s="1">
         <v>1687.5</v>
@@ -6654,7 +7671,7 @@
         <v>39</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E191" s="1">
         <v>1687.5</v>
@@ -6673,7 +7690,7 @@
         <v>41</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E192" s="1">
         <v>1687.5</v>
@@ -6692,7 +7709,7 @@
         <v>43</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E193" s="1">
         <v>1687.5</v>
@@ -6711,7 +7728,7 @@
         <v>9</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E194" s="4">
         <f>E193+62.5</f>
@@ -6730,7 +7747,7 @@
         <v>15</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E195" s="1">
         <v>1750.0</v>
@@ -6749,7 +7766,7 @@
         <v>17</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E196" s="1">
         <v>1750.0</v>
@@ -6768,7 +7785,7 @@
         <v>19</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E197" s="1">
         <v>1750.0</v>
@@ -6787,7 +7804,7 @@
         <v>21</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E198" s="1">
         <v>1750.0</v>
@@ -6806,7 +7823,7 @@
         <v>23</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E199" s="1">
         <v>1750.0</v>
@@ -6825,7 +7842,7 @@
         <v>25</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E200" s="1">
         <v>1750.0</v>
@@ -6844,7 +7861,7 @@
         <v>27</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E201" s="1">
         <v>1750.0</v>
@@ -6863,7 +7880,7 @@
         <v>29</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E202" s="1">
         <v>1750.0</v>
@@ -6882,7 +7899,7 @@
         <v>31</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E203" s="1">
         <v>1750.0</v>
@@ -6901,7 +7918,7 @@
         <v>33</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E204" s="1">
         <v>1750.0</v>
@@ -6920,7 +7937,7 @@
         <v>35</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E205" s="1">
         <v>1750.0</v>
@@ -6939,7 +7956,7 @@
         <v>37</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E206" s="1">
         <v>1750.0</v>
@@ -6958,7 +7975,7 @@
         <v>39</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E207" s="1">
         <v>1750.0</v>
@@ -6977,7 +7994,7 @@
         <v>41</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E208" s="1">
         <v>1750.0</v>
@@ -6996,7 +8013,7 @@
         <v>43</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E209" s="1">
         <v>1750.0</v>
@@ -7015,7 +8032,7 @@
         <v>9</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E210" s="4">
         <f>E209+62.5</f>
@@ -7034,7 +8051,7 @@
         <v>15</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E211" s="1">
         <v>1812.5</v>
@@ -7053,7 +8070,7 @@
         <v>17</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E212" s="1">
         <v>1812.5</v>
@@ -7072,7 +8089,7 @@
         <v>19</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E213" s="1">
         <v>1812.5</v>
@@ -7091,7 +8108,7 @@
         <v>21</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E214" s="1">
         <v>1812.5</v>
@@ -7110,7 +8127,7 @@
         <v>23</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E215" s="1">
         <v>1812.5</v>
@@ -7129,7 +8146,7 @@
         <v>25</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E216" s="1">
         <v>1812.5</v>
@@ -7148,7 +8165,7 @@
         <v>27</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E217" s="1">
         <v>1812.5</v>
@@ -7167,7 +8184,7 @@
         <v>29</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E218" s="1">
         <v>1812.5</v>
@@ -7186,7 +8203,7 @@
         <v>31</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E219" s="1">
         <v>1812.5</v>
@@ -7205,7 +8222,7 @@
         <v>33</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E220" s="1">
         <v>1812.5</v>
@@ -7224,7 +8241,7 @@
         <v>35</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E221" s="1">
         <v>1812.5</v>
@@ -7243,7 +8260,7 @@
         <v>37</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E222" s="1">
         <v>1812.5</v>
@@ -7262,7 +8279,7 @@
         <v>39</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E223" s="1">
         <v>1812.5</v>
@@ -7281,7 +8298,7 @@
         <v>41</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E224" s="1">
         <v>1812.5</v>
@@ -7300,7 +8317,7 @@
         <v>43</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E225" s="1">
         <v>1812.5</v>
@@ -7319,7 +8336,7 @@
         <v>9</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E226" s="4">
         <f>E225+62.5</f>
@@ -7338,7 +8355,7 @@
         <v>15</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E227" s="1">
         <v>1875.0</v>
@@ -7357,7 +8374,7 @@
         <v>17</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E228" s="1">
         <v>1875.0</v>
@@ -7376,7 +8393,7 @@
         <v>19</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E229" s="1">
         <v>1875.0</v>
@@ -7395,7 +8412,7 @@
         <v>21</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E230" s="1">
         <v>1875.0</v>
@@ -7414,7 +8431,7 @@
         <v>23</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E231" s="1">
         <v>1875.0</v>
@@ -7433,7 +8450,7 @@
         <v>25</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E232" s="1">
         <v>1875.0</v>
@@ -7452,7 +8469,7 @@
         <v>27</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E233" s="1">
         <v>1875.0</v>
@@ -7471,7 +8488,7 @@
         <v>29</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E234" s="1">
         <v>1875.0</v>
@@ -7490,7 +8507,7 @@
         <v>31</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E235" s="1">
         <v>1875.0</v>
@@ -7509,7 +8526,7 @@
         <v>33</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E236" s="1">
         <v>1875.0</v>
@@ -7528,7 +8545,7 @@
         <v>35</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E237" s="1">
         <v>1875.0</v>
@@ -7547,7 +8564,7 @@
         <v>37</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E238" s="1">
         <v>1875.0</v>
@@ -7566,7 +8583,7 @@
         <v>39</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E239" s="1">
         <v>1875.0</v>
@@ -7585,7 +8602,7 @@
         <v>41</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E240" s="1">
         <v>1875.0</v>
@@ -7604,7 +8621,7 @@
         <v>43</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E241" s="1">
         <v>1875.0</v>
@@ -7623,7 +8640,7 @@
         <v>9</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E242" s="4">
         <f>E241+62.5</f>
@@ -7642,7 +8659,7 @@
         <v>15</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E243" s="1">
         <v>1937.5</v>
@@ -7661,7 +8678,7 @@
         <v>17</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E244" s="1">
         <v>1937.5</v>
@@ -7680,7 +8697,7 @@
         <v>19</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E245" s="1">
         <v>1937.5</v>
@@ -7699,7 +8716,7 @@
         <v>21</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E246" s="1">
         <v>1937.5</v>
@@ -7718,7 +8735,7 @@
         <v>23</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E247" s="1">
         <v>1937.5</v>
@@ -7737,7 +8754,7 @@
         <v>25</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E248" s="1">
         <v>1937.5</v>
@@ -7756,7 +8773,7 @@
         <v>27</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E249" s="1">
         <v>1937.5</v>
@@ -7775,7 +8792,7 @@
         <v>29</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E250" s="1">
         <v>1937.5</v>
@@ -7794,7 +8811,7 @@
         <v>31</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E251" s="1">
         <v>1937.5</v>
@@ -7813,7 +8830,7 @@
         <v>33</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E252" s="1">
         <v>1937.5</v>
@@ -7832,7 +8849,7 @@
         <v>35</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E253" s="1">
         <v>1937.5</v>
@@ -7851,7 +8868,7 @@
         <v>37</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E254" s="1">
         <v>1937.5</v>
@@ -7870,7 +8887,7 @@
         <v>39</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E255" s="1">
         <v>1937.5</v>
@@ -7889,7 +8906,7 @@
         <v>41</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E256" s="1">
         <v>1937.5</v>
@@ -7906,6 +8923,9 @@
       </c>
       <c r="B257" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="E257" s="1">
         <v>1937.5</v>
@@ -43024,2901 +44044,3262 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>275</v>
-      </c>
+      <c r="A1" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1.0E7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>33.0</v>
+        <v>129.0</v>
       </c>
       <c r="B2" s="1">
-        <v>100001.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>201.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>81.0</v>
       </c>
       <c r="D2" s="1">
-        <v>108.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1101100.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="1">
-        <v>183.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.0110111E7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>201</v>
+        <v>1.0000001E7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>34.0</v>
+        <v>130.0</v>
       </c>
       <c r="B3" s="1">
-        <v>100010.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>202.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>82.0</v>
       </c>
       <c r="D3" s="1">
-        <v>109.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1101101.0</v>
+        <v>1.000001E7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="1">
-        <v>184.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.0111E7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>202</v>
+        <v>272</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>35.0</v>
+        <v>131.0</v>
       </c>
       <c r="B4" s="1">
-        <v>100011.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>203.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>83.0</v>
       </c>
       <c r="D4" s="1">
-        <v>110.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1101110.0</v>
+        <v>1.0000011E7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="1">
-        <v>185.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.0111001E7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>203</v>
+        <v>275</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>36.0</v>
+        <v>132.0</v>
       </c>
       <c r="B5" s="1">
-        <v>100100.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>204.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>84.0</v>
       </c>
       <c r="D5" s="1">
-        <v>111.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1101111.0</v>
+        <v>1.00001E7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="1">
-        <v>186.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.011101E7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>204</v>
+        <v>278</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>37.0</v>
+        <v>133.0</v>
       </c>
       <c r="B6" s="1">
-        <v>100101.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>205.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>85.0</v>
       </c>
       <c r="D6" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1110000.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>70.0</v>
+        <v>1.0000101E7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="1">
-        <v>187.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.0111011E7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>205</v>
+        <v>281</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>38.0</v>
+        <v>134.0</v>
       </c>
       <c r="B7" s="1">
-        <v>100110.0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>206.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>86.0</v>
       </c>
       <c r="D7" s="1">
-        <v>113.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1110001.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>71.0</v>
+        <v>1.000011E7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="1">
-        <v>188.0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.01111E7</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>206</v>
+        <v>284</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>39.0</v>
+        <v>135.0</v>
       </c>
       <c r="B8" s="1">
-        <v>100111.0</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>68</v>
+        <v>207.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>87.0</v>
       </c>
       <c r="D8" s="1">
-        <v>114.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1110010.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>72.0</v>
+        <v>1.0000111E7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="1">
-        <v>189.0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.0111101E7</v>
-      </c>
-      <c r="J8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>207</v>
+      <c r="H8" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>40.0</v>
+        <v>136.0</v>
       </c>
       <c r="B9" s="1">
-        <v>101000.0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>210.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>88.0</v>
       </c>
       <c r="D9" s="1">
-        <v>115.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1110011.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>73.0</v>
+        <v>1.0001E7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="1">
-        <v>190.0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.011111E7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>208</v>
+        <v>290</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>41.0</v>
+        <v>137.0</v>
       </c>
       <c r="B10" s="1">
-        <v>101010.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>211.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>89.0</v>
       </c>
       <c r="D10" s="1">
-        <v>116.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1110100.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>74.0</v>
+        <v>1.0001001E7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="1">
-        <v>191.0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.0111111E7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>209</v>
+        <v>293</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>42.0</v>
+        <v>138.0</v>
       </c>
       <c r="B11" s="1">
-        <v>101001.0</v>
+        <v>212.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="D11" s="1">
-        <v>117.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1110101.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>75.0</v>
+        <v>1.000101E7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="1">
-        <v>192.0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.1E7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>210</v>
+        <v>297</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>43.0</v>
+        <v>139.0</v>
       </c>
       <c r="B12" s="1">
-        <v>101011.0</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>72</v>
+        <v>213.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="D12" s="1">
-        <v>118.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1110110.0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>76.0</v>
+        <v>1.0001011E7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="1">
-        <v>193.0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1.1000001E7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>211</v>
+        <v>301</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>44.0</v>
+        <v>140.0</v>
       </c>
       <c r="B13" s="1">
-        <v>101100.0</v>
+        <v>214.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="D13" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1110111.0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>77.0</v>
+        <v>1.00011E7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="1">
-        <v>194.0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1.100001E7</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>212</v>
+        <v>305</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>45.0</v>
+        <v>141.0</v>
       </c>
       <c r="B14" s="1">
-        <v>101101.0</v>
+        <v>215.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D14" s="1">
-        <v>120.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1111000.0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>78.0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="1">
-        <v>195.0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.1000011E7</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>213</v>
+        <v>1.0001101E7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>46.0</v>
+        <v>142.0</v>
       </c>
       <c r="B15" s="1">
-        <v>101110.0</v>
+        <v>216.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="D15" s="1">
-        <v>121.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1111001.0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="1">
-        <v>196.0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1.10001E7</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>214</v>
+        <v>1.000111E7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>47.0</v>
+        <v>143.0</v>
       </c>
       <c r="B16" s="1">
-        <v>101111.0</v>
+        <v>217.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="D16" s="1">
-        <v>122.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1111010.0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="1">
-        <v>197.0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1.1000101E7</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>215</v>
+        <v>1.0001111E7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>48.0</v>
+        <v>144.0</v>
       </c>
       <c r="B17" s="1">
-        <v>110000.0</v>
+        <v>220.0</v>
       </c>
       <c r="C17" s="1">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="D17" s="1">
-        <v>123.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1111011.0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="1">
-        <v>198.0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1.100011E7</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>216</v>
+        <v>1.001E7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>49.0</v>
+        <v>145.0</v>
       </c>
       <c r="B18" s="1">
-        <v>110001.0</v>
+        <v>221.0</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
+        <v>91.0</v>
       </c>
       <c r="D18" s="1">
-        <v>124.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1111100.0</v>
+        <v>1.0010001E7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="1">
-        <v>199.0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1.1000111E7</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>217</v>
+        <v>313</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>50.0</v>
+        <v>146.0</v>
       </c>
       <c r="B19" s="1">
-        <v>110010.0</v>
+        <v>222.0</v>
       </c>
       <c r="C19" s="1">
-        <v>2.0</v>
+        <v>92.0</v>
       </c>
       <c r="D19" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1111101.0</v>
+        <v>1.001001E7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1.1001E7</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>218</v>
+        <v>316</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>51.0</v>
+        <v>147.0</v>
       </c>
       <c r="B20" s="1">
-        <v>110011.0</v>
+        <v>223.0</v>
       </c>
       <c r="C20" s="1">
-        <v>3.0</v>
+        <v>93.0</v>
       </c>
       <c r="D20" s="1">
-        <v>126.0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1111110.0</v>
+        <v>1.0010011E7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.1001001E7</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>219</v>
+        <v>319</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>52.0</v>
+        <v>148.0</v>
       </c>
       <c r="B21" s="1">
-        <v>110100.0</v>
+        <v>224.0</v>
       </c>
       <c r="C21" s="1">
-        <v>4.0</v>
+        <v>94.0</v>
       </c>
       <c r="D21" s="1">
-        <v>127.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1111111.0</v>
+        <v>1.00101E7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H21" s="1">
-        <v>202.0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.100101E7</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>220</v>
+        <v>322</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>53.0</v>
+        <v>149.0</v>
       </c>
       <c r="B22" s="1">
-        <v>110101.0</v>
+        <v>225.0</v>
       </c>
       <c r="C22" s="1">
-        <v>5.0</v>
+        <v>95.0</v>
       </c>
       <c r="D22" s="1">
-        <v>128.0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.0E7</v>
-      </c>
-      <c r="F22" s="1">
-        <v>80.0</v>
+        <v>1.0010101E7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="1">
-        <v>203.0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.1001011E7</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>221</v>
+        <v>325</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>54.0</v>
+        <v>150.0</v>
       </c>
       <c r="B23" s="1">
-        <v>110110.0</v>
+        <v>226.0</v>
       </c>
       <c r="C23" s="1">
-        <v>6.0</v>
+        <v>96.0</v>
       </c>
       <c r="D23" s="1">
-        <v>129.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.0000001E7</v>
-      </c>
-      <c r="F23" s="1">
-        <v>81.0</v>
+        <v>1.001011E7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="1">
-        <v>204.0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1.10011E7</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>222</v>
+        <v>328</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>55.0</v>
+        <v>151.0</v>
       </c>
       <c r="B24" s="1">
-        <v>110111.0</v>
+        <v>227.0</v>
       </c>
       <c r="C24" s="1">
-        <v>7.0</v>
+        <v>97.0</v>
       </c>
       <c r="D24" s="1">
-        <v>130.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.000001E7</v>
-      </c>
-      <c r="F24" s="1">
-        <v>82.0</v>
+        <v>1.0010111E7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="1">
-        <v>205.0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1.1001101E7</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>223</v>
+        <v>331</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>56.0</v>
+        <v>152.0</v>
       </c>
       <c r="B25" s="1">
-        <v>111000.0</v>
+        <v>230.0</v>
       </c>
       <c r="C25" s="1">
-        <v>8.0</v>
+        <v>98.0</v>
       </c>
       <c r="D25" s="1">
-        <v>131.0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.0000011E7</v>
-      </c>
-      <c r="F25" s="1">
-        <v>83.0</v>
+        <v>1.0011E7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="1">
-        <v>206.0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1.100111E7</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>224</v>
+        <v>334</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>57.0</v>
+        <v>153.0</v>
       </c>
       <c r="B26" s="1">
-        <v>111001.0</v>
+        <v>231.0</v>
       </c>
       <c r="C26" s="1">
-        <v>9.0</v>
+        <v>99.0</v>
       </c>
       <c r="D26" s="1">
-        <v>132.0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.00001E7</v>
-      </c>
-      <c r="F26" s="1">
-        <v>84.0</v>
+        <v>1.0011001E7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="1">
-        <v>207.0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1.1001111E7</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>225</v>
+        <v>337</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>58.0</v>
+        <v>154.0</v>
       </c>
       <c r="B27" s="1">
-        <v>111010.0</v>
+        <v>232.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="D27" s="1">
-        <v>133.0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1.0000101E7</v>
-      </c>
-      <c r="F27" s="1">
-        <v>85.0</v>
+        <v>1.001101E7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="1">
-        <v>208.0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1.101E7</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>226</v>
+        <v>341</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>59.0</v>
+        <v>155.0</v>
       </c>
       <c r="B28" s="1">
-        <v>111011.0</v>
+        <v>233.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="D28" s="1">
-        <v>134.0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1.000011E7</v>
-      </c>
-      <c r="F28" s="1">
-        <v>86.0</v>
+        <v>1.0011011E7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H28" s="1">
-        <v>209.0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1.1010001E7</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>227</v>
+        <v>345</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>60.0</v>
+        <v>156.0</v>
       </c>
       <c r="B29" s="1">
-        <v>111100.0</v>
+        <v>234.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="D29" s="1">
-        <v>135.0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.0000111E7</v>
-      </c>
-      <c r="F29" s="1">
-        <v>87.0</v>
+        <v>1.00111E7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="1">
-        <v>210.0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1.101001E7</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>228</v>
+        <v>349</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>61.0</v>
+        <v>157.0</v>
       </c>
       <c r="B30" s="1">
-        <v>111101.0</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>80</v>
+        <v>235.0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="D30" s="1">
-        <v>136.0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.0001E7</v>
-      </c>
-      <c r="F30" s="1">
-        <v>88.0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="1">
-        <v>211.0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1.1010011E7</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>229</v>
+        <v>1.0011101E7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>62.0</v>
+        <v>158.0</v>
       </c>
       <c r="B31" s="1">
-        <v>111110.0</v>
+        <v>236.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="D31" s="1">
-        <v>137.0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.0001001E7</v>
-      </c>
-      <c r="F31" s="1">
-        <v>89.0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" s="1">
-        <v>212.0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1.10101E7</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>230</v>
+        <v>1.001111E7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>63.0</v>
+        <v>159.0</v>
       </c>
       <c r="B32" s="1">
-        <v>111111.0</v>
+        <v>237.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="D32" s="1">
-        <v>138.0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.000101E7</v>
+        <v>1.0011111E7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="1">
-        <v>213.0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1.1010101E7</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>231</v>
+        <v>357</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>64.0</v>
+        <v>160.0</v>
       </c>
       <c r="B33" s="1">
-        <v>1000000.0</v>
+        <v>240.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="D33" s="1">
-        <v>139.0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1.0001011E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" s="1">
-        <v>214.0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1.101011E7</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>232</v>
+        <v>361</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>65.0</v>
+        <v>161.0</v>
       </c>
       <c r="B34" s="1">
-        <v>1000001.0</v>
+        <v>241.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="D34" s="1">
-        <v>140.0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1.00011E7</v>
+        <v>1.0100001E7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="1">
-        <v>215.0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1.1010111E7</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>233</v>
+        <v>365</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>66.0</v>
+        <v>162.0</v>
       </c>
       <c r="B35" s="1">
-        <v>1000010.0</v>
+        <v>242.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="D35" s="1">
-        <v>141.0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1.0001101E7</v>
+        <v>1.010001E7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="1">
-        <v>216.0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1.1011E7</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>234</v>
+        <v>369</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>67.0</v>
+        <v>163.0</v>
       </c>
       <c r="B36" s="1">
-        <v>1000011.0</v>
+        <v>243.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="D36" s="1">
-        <v>142.0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.000111E7</v>
+        <v>1.0100011E7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="1">
-        <v>217.0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1.1011001E7</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>235</v>
+        <v>373</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>68.0</v>
+        <v>164.0</v>
       </c>
       <c r="B37" s="1">
-        <v>1000100.0</v>
+        <v>244.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
       <c r="D37" s="1">
-        <v>143.0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.0001111E7</v>
+        <v>1.01001E7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="1">
-        <v>218.0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1.101101E7</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>236</v>
+        <v>377</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>69.0</v>
+        <v>165.0</v>
       </c>
       <c r="B38" s="1">
-        <v>1000101.0</v>
+        <v>245.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="D38" s="1">
-        <v>144.0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.001E7</v>
-      </c>
-      <c r="F38" s="1">
-        <v>90.0</v>
+        <v>1.0100101E7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="1">
-        <v>219.0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1.1011011E7</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>237</v>
+        <v>381</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>70.0</v>
+        <v>166.0</v>
       </c>
       <c r="B39" s="1">
-        <v>1000110.0</v>
+        <v>246.0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>383</v>
       </c>
       <c r="D39" s="1">
-        <v>145.0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1.0010001E7</v>
-      </c>
-      <c r="F39" s="1">
-        <v>91.0</v>
+        <v>1.010011E7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H39" s="1">
-        <v>220.0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1.10111E7</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>238</v>
+        <v>385</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>71.0</v>
+        <v>167.0</v>
       </c>
       <c r="B40" s="1">
-        <v>1000111.0</v>
+        <v>247.0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>90</v>
+        <v>387</v>
       </c>
       <c r="D40" s="1">
-        <v>146.0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1.001001E7</v>
-      </c>
-      <c r="F40" s="1">
-        <v>92.0</v>
+        <v>1.0100111E7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H40" s="1">
-        <v>221.0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1.1011101E7</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>239</v>
+        <v>389</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>72.0</v>
+        <v>168.0</v>
       </c>
       <c r="B41" s="1">
-        <v>1001000.0</v>
+        <v>250.0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="D41" s="1">
-        <v>147.0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1.0010011E7</v>
-      </c>
-      <c r="F41" s="1">
-        <v>93.0</v>
+        <v>1.0101E7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="1">
-        <v>222.0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1.101111E7</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>240</v>
+        <v>393</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>73.0</v>
+        <v>169.0</v>
       </c>
       <c r="B42" s="1">
-        <v>1001001.0</v>
+        <v>251.0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>395</v>
       </c>
       <c r="D42" s="1">
-        <v>148.0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1.00101E7</v>
-      </c>
-      <c r="F42" s="1">
-        <v>94.0</v>
+        <v>1.0101001E7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H42" s="1">
-        <v>223.0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1.1011111E7</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>241</v>
+        <v>397</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>74.0</v>
+        <v>170.0</v>
       </c>
       <c r="B43" s="1">
-        <v>1001010.0</v>
+        <v>252.0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="D43" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1.0010101E7</v>
-      </c>
-      <c r="F43" s="1">
-        <v>95.0</v>
+        <v>1.010101E7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H43" s="1">
-        <v>224.0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1.11E7</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>242</v>
+        <v>401</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>75.0</v>
+        <v>171.0</v>
       </c>
       <c r="B44" s="1">
-        <v>1001011.0</v>
+        <v>253.0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>403</v>
       </c>
       <c r="D44" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1.001011E7</v>
-      </c>
-      <c r="F44" s="1">
-        <v>96.0</v>
+        <v>1.0101011E7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H44" s="1">
-        <v>225.0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1.1100001E7</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>243</v>
+        <v>405</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>76.0</v>
+        <v>172.0</v>
       </c>
       <c r="B45" s="1">
-        <v>1001100.0</v>
+        <v>254.0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>407</v>
       </c>
       <c r="D45" s="1">
-        <v>151.0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1.0010111E7</v>
-      </c>
-      <c r="F45" s="1">
-        <v>97.0</v>
+        <v>1.01011E7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H45" s="1">
-        <v>226.0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1.110001E7</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>244</v>
+        <v>409</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>77.0</v>
+        <v>173.0</v>
       </c>
       <c r="B46" s="1">
-        <v>1001101.0</v>
+        <v>255.0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>411</v>
       </c>
       <c r="D46" s="1">
-        <v>152.0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1.0011E7</v>
-      </c>
-      <c r="F46" s="1">
-        <v>98.0</v>
+        <v>1.0101101E7</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" s="1">
-        <v>227.0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1.1100011E7</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>245</v>
+        <v>413</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>78.0</v>
+        <v>174.0</v>
       </c>
       <c r="B47" s="1">
-        <v>1001110.0</v>
+        <v>256.0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>415</v>
       </c>
       <c r="D47" s="1">
-        <v>153.0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1.0011001E7</v>
-      </c>
-      <c r="F47" s="1">
-        <v>99.0</v>
+        <v>1.010111E7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" s="1">
-        <v>228.0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1.11001E7</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>246</v>
+        <v>417</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>79.0</v>
+        <v>175.0</v>
       </c>
       <c r="B48" s="1">
-        <v>1001111.0</v>
+        <v>257.0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>98</v>
+        <v>419</v>
       </c>
       <c r="D48" s="1">
-        <v>154.0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1.001101E7</v>
+        <v>1.0101111E7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H48" s="1">
-        <v>229.0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1.1100101E7</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>247</v>
+        <v>421</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>80.0</v>
+        <v>176.0</v>
       </c>
       <c r="B49" s="1">
-        <v>1010000.0</v>
+        <v>260.0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>423</v>
       </c>
       <c r="D49" s="1">
-        <v>155.0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1.0011011E7</v>
+        <v>1.011E7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H49" s="1">
-        <v>230.0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1.110011E7</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>248</v>
+        <v>425</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>81.0</v>
+        <v>177.0</v>
       </c>
       <c r="B50" s="1">
-        <v>1010001.0</v>
+        <v>261.0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>100</v>
+        <v>427</v>
       </c>
       <c r="D50" s="1">
-        <v>156.0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1.00111E7</v>
+        <v>1.0110001E7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H50" s="1">
-        <v>231.0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>1.1100111E7</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>249</v>
+        <v>429</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>82.0</v>
+        <v>178.0</v>
       </c>
       <c r="B51" s="1">
-        <v>1010010.0</v>
+        <v>262.0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>101</v>
+        <v>431</v>
       </c>
       <c r="D51" s="1">
-        <v>157.0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1.0011101E7</v>
+        <v>1.011001E7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>347</v>
+        <v>432</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" s="1">
-        <v>232.0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>1.1101E7</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>250</v>
+        <v>433</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>83.0</v>
+        <v>179.0</v>
       </c>
       <c r="B52" s="1">
-        <v>1010011.0</v>
+        <v>263.0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>435</v>
       </c>
       <c r="D52" s="1">
-        <v>158.0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.001111E7</v>
+        <v>1.0110011E7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>349</v>
+        <v>436</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H52" s="1">
-        <v>233.0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1.1101001E7</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>251</v>
+        <v>437</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>84.0</v>
+        <v>180.0</v>
       </c>
       <c r="B53" s="1">
-        <v>1010100.0</v>
+        <v>264.0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>103</v>
+        <v>439</v>
       </c>
       <c r="D53" s="1">
-        <v>159.0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1.0011111E7</v>
+        <v>1.01101E7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>351</v>
+        <v>440</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H53" s="1">
-        <v>234.0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1.110101E7</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>252</v>
+        <v>441</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>85.0</v>
+        <v>181.0</v>
       </c>
       <c r="B54" s="1">
-        <v>1010101.0</v>
+        <v>265.0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>443</v>
       </c>
       <c r="D54" s="1">
-        <v>160.0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.01E7</v>
+        <v>1.0110101E7</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>353</v>
+        <v>444</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H54" s="1">
-        <v>235.0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1.1101011E7</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>253</v>
+        <v>445</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>86.0</v>
+        <v>182.0</v>
       </c>
       <c r="B55" s="1">
-        <v>1010110.0</v>
+        <v>266.0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>105</v>
+        <v>447</v>
       </c>
       <c r="D55" s="1">
-        <v>161.0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1.0100001E7</v>
+        <v>1.011011E7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H55" s="1">
-        <v>236.0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1.11011E7</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>254</v>
+        <v>449</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>87.0</v>
+        <v>183.0</v>
       </c>
       <c r="B56" s="1">
-        <v>1010111.0</v>
+        <v>267.0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>106</v>
+        <v>451</v>
       </c>
       <c r="D56" s="1">
-        <v>162.0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1.010001E7</v>
+        <v>1.0110111E7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>357</v>
+        <v>452</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H56" s="1">
-        <v>237.0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>1.1101101E7</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>255</v>
+        <v>453</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>88.0</v>
+        <v>184.0</v>
       </c>
       <c r="B57" s="1">
-        <v>1011000.0</v>
+        <v>270.0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>107</v>
+        <v>455</v>
       </c>
       <c r="D57" s="1">
-        <v>163.0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1.0100011E7</v>
+        <v>1.0111E7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H57" s="1">
-        <v>238.0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1.110111E7</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>256</v>
+        <v>457</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>89.0</v>
+        <v>185.0</v>
       </c>
       <c r="B58" s="1">
-        <v>1011001.0</v>
+        <v>271.0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>108</v>
+        <v>459</v>
       </c>
       <c r="D58" s="1">
-        <v>164.0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1.01001E7</v>
+        <v>1.0111001E7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>361</v>
+        <v>460</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H58" s="1">
-        <v>239.0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1.1101111E7</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>257</v>
+        <v>461</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>90.0</v>
+        <v>186.0</v>
       </c>
       <c r="B59" s="1">
-        <v>1011010.0</v>
+        <v>272.0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>109</v>
+        <v>463</v>
       </c>
       <c r="D59" s="1">
-        <v>165.0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1.0100101E7</v>
+        <v>1.011101E7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>363</v>
+        <v>464</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H59" s="1">
-        <v>240.0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1.111E7</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>258</v>
+        <v>465</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>91.0</v>
+        <v>187.0</v>
       </c>
       <c r="B60" s="1">
-        <v>1011011.0</v>
+        <v>273.0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
+        <v>467</v>
       </c>
       <c r="D60" s="1">
-        <v>166.0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1.010011E7</v>
+        <v>1.0111011E7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>365</v>
+        <v>468</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H60" s="1">
-        <v>241.0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>1.1110001E7</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>259</v>
+        <v>469</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>92.0</v>
+        <v>188.0</v>
       </c>
       <c r="B61" s="1">
-        <v>1011100.0</v>
+        <v>274.0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>111</v>
+        <v>471</v>
       </c>
       <c r="D61" s="1">
-        <v>167.0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1.0100111E7</v>
+        <v>1.01111E7</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H61" s="1">
-        <v>242.0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1.111001E7</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>260</v>
+        <v>473</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>93.0</v>
+        <v>189.0</v>
       </c>
       <c r="B62" s="1">
-        <v>1011101.0</v>
+        <v>275.0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>112</v>
+        <v>475</v>
       </c>
       <c r="D62" s="1">
-        <v>168.0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1.0101E7</v>
+        <v>1.0111101E7</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>369</v>
+        <v>476</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H62" s="1">
-        <v>243.0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1.1110011E7</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>261</v>
+        <v>477</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>94.0</v>
+        <v>190.0</v>
       </c>
       <c r="B63" s="1">
-        <v>1011110.0</v>
+        <v>276.0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="D63" s="1">
-        <v>169.0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1.0101001E7</v>
+        <v>1.011111E7</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>371</v>
+        <v>480</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H63" s="1">
-        <v>244.0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1.11101E7</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>262</v>
+        <v>481</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>95.0</v>
+        <v>191.0</v>
       </c>
       <c r="B64" s="1">
-        <v>1011111.0</v>
+        <v>277.0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>114</v>
+        <v>483</v>
       </c>
       <c r="D64" s="1">
-        <v>170.0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1.010101E7</v>
+        <v>1.0111111E7</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>373</v>
+        <v>484</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H64" s="1">
-        <v>245.0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1.1110101E7</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>263</v>
+        <v>485</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>96.0</v>
+        <v>192.0</v>
       </c>
       <c r="B65" s="1">
-        <v>1100000.0</v>
+        <v>300.0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>115</v>
+        <v>487</v>
       </c>
       <c r="D65" s="1">
-        <v>171.0</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1.0101011E7</v>
+        <v>1.1E7</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>375</v>
+        <v>488</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" s="1">
-        <v>246.0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1.111011E7</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>264</v>
+        <v>489</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>97.0</v>
+        <v>193.0</v>
       </c>
       <c r="B66" s="1">
-        <v>1100001.0</v>
+        <v>301.0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>116</v>
+        <v>491</v>
       </c>
       <c r="D66" s="1">
-        <v>172.0</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1.01011E7</v>
+        <v>1.1000001E7</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>377</v>
+        <v>492</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H66" s="1">
-        <v>247.0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1.1110111E7</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>265</v>
+        <v>493</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>98.0</v>
+        <v>194.0</v>
       </c>
       <c r="B67" s="1">
-        <v>1100010.0</v>
+        <v>302.0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>117</v>
+        <v>495</v>
       </c>
       <c r="D67" s="1">
-        <v>173.0</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1.0101101E7</v>
+        <v>1.100001E7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>379</v>
+        <v>496</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H67" s="1">
-        <v>248.0</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1.1111E7</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>266</v>
+        <v>497</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>99.0</v>
+        <v>195.0</v>
       </c>
       <c r="B68" s="1">
-        <v>1100011.0</v>
+        <v>303.0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>118</v>
+        <v>499</v>
       </c>
       <c r="D68" s="1">
-        <v>174.0</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1.010111E7</v>
+        <v>1.1000011E7</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68" s="1">
-        <v>249.0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1.1111001E7</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>267</v>
+        <v>501</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>100.0</v>
+        <v>196.0</v>
       </c>
       <c r="B69" s="1">
-        <v>1100100.0</v>
+        <v>304.0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>503</v>
       </c>
       <c r="D69" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1.0101111E7</v>
+        <v>1.10001E7</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H69" s="1">
-        <v>250.0</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1.111101E7</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>268</v>
+        <v>505</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>101.0</v>
+        <v>197.0</v>
       </c>
       <c r="B70" s="1">
-        <v>1100101.0</v>
+        <v>305.0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>120</v>
+        <v>507</v>
       </c>
       <c r="D70" s="1">
-        <v>176.0</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1.011E7</v>
+        <v>1.1000101E7</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>385</v>
+        <v>508</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H70" s="1">
-        <v>251.0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1.1111011E7</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>269</v>
+        <v>509</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>102.0</v>
+        <v>198.0</v>
       </c>
       <c r="B71" s="1">
-        <v>1100110.0</v>
+        <v>306.0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>121</v>
+        <v>511</v>
       </c>
       <c r="D71" s="1">
-        <v>177.0</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1.0110001E7</v>
+        <v>1.100011E7</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>387</v>
+        <v>512</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H71" s="1">
-        <v>252.0</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1.11111E7</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>270</v>
+        <v>513</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>103.0</v>
+        <v>199.0</v>
       </c>
       <c r="B72" s="1">
-        <v>1100111.0</v>
+        <v>307.0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>122</v>
+        <v>515</v>
       </c>
       <c r="D72" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1.011001E7</v>
+        <v>1.1000111E7</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>389</v>
+        <v>516</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H72" s="1">
-        <v>253.0</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1.1111101E7</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>271</v>
+        <v>517</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>104.0</v>
+        <v>200.0</v>
       </c>
       <c r="B73" s="1">
-        <v>1101000.0</v>
+        <v>310.0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>123</v>
+        <v>519</v>
       </c>
       <c r="D73" s="1">
-        <v>179.0</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1.0110011E7</v>
+        <v>1.1001E7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>391</v>
+        <v>520</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H73" s="1">
-        <v>254.0</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1.111111E7</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>272</v>
+        <v>521</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>105.0</v>
+        <v>201.0</v>
       </c>
       <c r="B74" s="1">
-        <v>1101001.0</v>
+        <v>311.0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>124</v>
+        <v>523</v>
       </c>
       <c r="D74" s="1">
-        <v>180.0</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1.01101E7</v>
+        <v>1.1001001E7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H74" s="1">
-        <v>255.0</v>
-      </c>
-      <c r="I74" s="1">
-        <v>1.1111111E7</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>394</v>
+        <v>525</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>106.0</v>
+        <v>202.0</v>
       </c>
       <c r="B75" s="1">
-        <v>1101010.0</v>
+        <v>312.0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="D75" s="1">
-        <v>181.0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1.0110101E7</v>
+        <v>1.100101E7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>395</v>
+        <v>528</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>199</v>
+        <v>529</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>107.0</v>
+        <v>203.0</v>
       </c>
       <c r="B76" s="1">
-        <v>1101011.0</v>
+        <v>313.0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>126</v>
+        <v>531</v>
       </c>
       <c r="D76" s="1">
-        <v>182.0</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1.011011E7</v>
+        <v>1.1001011E7</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>396</v>
+        <v>532</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>200</v>
+        <v>533</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>94</v>
+      <c r="A77" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B77" s="1">
+        <v>314.0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1.10011E7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>95</v>
+      <c r="A78" s="1">
+        <v>205.0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>315.0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1.1001101E7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>96</v>
+      <c r="A79" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="B79" s="1">
+        <v>316.0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1.100111E7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>97</v>
+      <c r="A80" s="1">
+        <v>207.0</v>
+      </c>
+      <c r="B80" s="1">
+        <v>317.0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.1001111E7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>98</v>
+      <c r="A81" s="1">
+        <v>208.0</v>
+      </c>
+      <c r="B81" s="1">
+        <v>320.0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.101E7</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>99</v>
+      <c r="A82" s="1">
+        <v>209.0</v>
+      </c>
+      <c r="B82" s="1">
+        <v>321.0</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.1010001E7</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>100</v>
+      <c r="A83" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="B83" s="1">
+        <v>322.0</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.101001E7</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>101</v>
+      <c r="A84" s="1">
+        <v>211.0</v>
+      </c>
+      <c r="B84" s="1">
+        <v>323.0</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1.1010011E7</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>102</v>
+      <c r="A85" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>324.0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1.10101E7</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>103</v>
+      <c r="A86" s="1">
+        <v>213.0</v>
+      </c>
+      <c r="B86" s="1">
+        <v>325.0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.1010101E7</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>104</v>
+      <c r="A87" s="1">
+        <v>214.0</v>
+      </c>
+      <c r="B87" s="1">
+        <v>326.0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1.101011E7</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>105</v>
+      <c r="A88" s="1">
+        <v>215.0</v>
+      </c>
+      <c r="B88" s="1">
+        <v>327.0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1.1010111E7</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>106</v>
+      <c r="A89" s="1">
+        <v>216.0</v>
+      </c>
+      <c r="B89" s="1">
+        <v>330.0</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1.1011E7</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>107</v>
+      <c r="A90" s="1">
+        <v>217.0</v>
+      </c>
+      <c r="B90" s="1">
+        <v>331.0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.1011001E7</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>108</v>
+      <c r="A91" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B91" s="1">
+        <v>332.0</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1.101101E7</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>109</v>
+      <c r="A92" s="1">
+        <v>219.0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>333.0</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1.1011011E7</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>110</v>
+      <c r="A93" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="B93" s="1">
+        <v>334.0</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1.10111E7</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>111</v>
+      <c r="A94" s="1">
+        <v>221.0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>335.0</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1.1011101E7</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>112</v>
+      <c r="A95" s="1">
+        <v>222.0</v>
+      </c>
+      <c r="B95" s="1">
+        <v>336.0</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.101111E7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>113</v>
+      <c r="A96" s="1">
+        <v>223.0</v>
+      </c>
+      <c r="B96" s="1">
+        <v>337.0</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1.1011111E7</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>114</v>
+      <c r="A97" s="1">
+        <v>224.0</v>
+      </c>
+      <c r="B97" s="1">
+        <v>340.0</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1.11E7</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>115</v>
+      <c r="A98" s="1">
+        <v>225.0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>341.0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1.1100001E7</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>116</v>
+      <c r="A99" s="1">
+        <v>226.0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>342.0</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1.110001E7</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>117</v>
+      <c r="A100" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B100" s="1">
+        <v>343.0</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1.1100011E7</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>118</v>
+      <c r="A101" s="1">
+        <v>228.0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>344.0</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1.11001E7</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>119</v>
+      <c r="A102" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B102" s="1">
+        <v>345.0</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1.1100101E7</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>120</v>
+      <c r="A103" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="B103" s="1">
+        <v>346.0</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1.110011E7</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>121</v>
+      <c r="A104" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>347.0</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1.1100111E7</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>122</v>
+      <c r="A105" s="1">
+        <v>232.0</v>
+      </c>
+      <c r="B105" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1.1101E7</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>123</v>
+      <c r="A106" s="1">
+        <v>233.0</v>
+      </c>
+      <c r="B106" s="1">
+        <v>351.0</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1.1101001E7</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>124</v>
+      <c r="A107" s="1">
+        <v>234.0</v>
+      </c>
+      <c r="B107" s="1">
+        <v>352.0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1.110101E7</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>125</v>
+      <c r="A108" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="B108" s="1">
+        <v>353.0</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1.1101011E7</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>126</v>
+      <c r="A109" s="1">
+        <v>236.0</v>
+      </c>
+      <c r="B109" s="1">
+        <v>354.0</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1.11011E7</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>127</v>
+      <c r="A110" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B110" s="1">
+        <v>355.0</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1.1101101E7</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>128</v>
+      <c r="A111" s="1">
+        <v>238.0</v>
+      </c>
+      <c r="B111" s="1">
+        <v>356.0</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1.110111E7</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>129</v>
+      <c r="A112" s="1">
+        <v>239.0</v>
+      </c>
+      <c r="B112" s="1">
+        <v>357.0</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1.1101111E7</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>130</v>
+      <c r="A113" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="B113" s="1">
+        <v>360.0</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1.111E7</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>131</v>
+      <c r="A114" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1.1110001E7</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>132</v>
+      <c r="A115" s="1">
+        <v>242.0</v>
+      </c>
+      <c r="B115" s="1">
+        <v>362.0</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1.111001E7</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>133</v>
+      <c r="A116" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B116" s="1">
+        <v>363.0</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1.1110011E7</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>134</v>
+      <c r="A117" s="1">
+        <v>244.0</v>
+      </c>
+      <c r="B117" s="1">
+        <v>364.0</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1.11101E7</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>135</v>
+      <c r="A118" s="1">
+        <v>245.0</v>
+      </c>
+      <c r="B118" s="1">
+        <v>365.0</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1.1110101E7</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>136</v>
+      <c r="A119" s="1">
+        <v>246.0</v>
+      </c>
+      <c r="B119" s="1">
+        <v>366.0</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1.111011E7</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>137</v>
+      <c r="A120" s="1">
+        <v>247.0</v>
+      </c>
+      <c r="B120" s="1">
+        <v>367.0</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1.1110111E7</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>138</v>
+      <c r="A121" s="1">
+        <v>248.0</v>
+      </c>
+      <c r="B121" s="1">
+        <v>370.0</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1.1111E7</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>139</v>
+      <c r="A122" s="1">
+        <v>249.0</v>
+      </c>
+      <c r="B122" s="1">
+        <v>371.0</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1.1111001E7</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>140</v>
+      <c r="A123" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="B123" s="1">
+        <v>372.0</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1.111101E7</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>141</v>
+      <c r="A124" s="1">
+        <v>251.0</v>
+      </c>
+      <c r="B124" s="1">
+        <v>373.0</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1.1111011E7</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>142</v>
+      <c r="A125" s="1">
+        <v>252.0</v>
+      </c>
+      <c r="B125" s="1">
+        <v>374.0</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1.11111E7</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>143</v>
+      <c r="A126" s="1">
+        <v>253.0</v>
+      </c>
+      <c r="B126" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1.1111101E7</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>144</v>
+      <c r="A127" s="1">
+        <v>254.0</v>
+      </c>
+      <c r="B127" s="1">
+        <v>376.0</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1.111111E7</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>146</v>
+      <c r="A128" s="1">
+        <v>255.0</v>
+      </c>
+      <c r="B128" s="1">
+        <v>377.0</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1.1111111E7</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
